--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Trial 1</t>
   </si>
@@ -133,6 +133,81 @@
   </si>
   <si>
     <t>Memory</t>
+  </si>
+  <si>
+    <t>SL 1</t>
+  </si>
+  <si>
+    <t>SL 2</t>
+  </si>
+  <si>
+    <t>SL 3</t>
+  </si>
+  <si>
+    <t>SL 4</t>
+  </si>
+  <si>
+    <t>SL 5</t>
+  </si>
+  <si>
+    <t>SL 6</t>
+  </si>
+  <si>
+    <t>SL 7</t>
+  </si>
+  <si>
+    <t>SL 8</t>
+  </si>
+  <si>
+    <t>SL 9</t>
+  </si>
+  <si>
+    <t>SL 10</t>
+  </si>
+  <si>
+    <t>PH 1</t>
+  </si>
+  <si>
+    <t>PH 2</t>
+  </si>
+  <si>
+    <t>PH 3</t>
+  </si>
+  <si>
+    <t>PH 4</t>
+  </si>
+  <si>
+    <t>PH 5</t>
+  </si>
+  <si>
+    <t>PH 6</t>
+  </si>
+  <si>
+    <t>PH 7</t>
+  </si>
+  <si>
+    <t>PH 8</t>
+  </si>
+  <si>
+    <t>PH 9</t>
+  </si>
+  <si>
+    <t>PH 10</t>
+  </si>
+  <si>
+    <t>TTS</t>
+  </si>
+  <si>
+    <t>NHC</t>
+  </si>
+  <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t>MTG</t>
+  </si>
+  <si>
+    <t>NP</t>
   </si>
 </sst>
 </file>
@@ -693,8 +768,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182277272"/>
-        <c:axId val="182276880"/>
+        <c:axId val="265353088"/>
+        <c:axId val="265410272"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1117,14 +1192,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182275704"/>
-        <c:axId val="182276096"/>
+        <c:axId val="265422304"/>
+        <c:axId val="265411680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182277272"/>
+        <c:axId val="265353088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="2000"/>
           <c:min val="33"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1236,13 +1311,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182276880"/>
+        <c:crossAx val="265410272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182276880"/>
+        <c:axId val="265410272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,12 +1435,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182277272"/>
+        <c:crossAx val="265353088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182276096"/>
+        <c:axId val="265411680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,12 +1539,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182275704"/>
+        <c:crossAx val="265422304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182275704"/>
+        <c:axId val="265422304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1479,7 +1554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182276096"/>
+        <c:crossAx val="265411680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2408,8 +2483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5243,43 +5318,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>35</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="B2" t="e">
+        <f>AVERAGE(H2:Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>AVERAGE(S2:AB2)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
+        <v>31476.799999999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C5" si="1">AVERAGE(S3:AB3)</f>
+        <v>713.4</v>
+      </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>31717</v>
+      </c>
+      <c r="I3">
+        <v>31548</v>
+      </c>
+      <c r="J3">
+        <v>31389</v>
+      </c>
+      <c r="K3">
+        <v>31221</v>
+      </c>
+      <c r="L3">
+        <v>31595</v>
+      </c>
+      <c r="M3">
+        <v>31288</v>
+      </c>
+      <c r="N3">
+        <v>31576</v>
+      </c>
+      <c r="O3">
+        <v>31467</v>
+      </c>
+      <c r="P3">
+        <v>31612</v>
+      </c>
+      <c r="Q3">
+        <v>31355</v>
+      </c>
+      <c r="S3">
+        <v>749</v>
+      </c>
+      <c r="T3">
+        <v>718</v>
+      </c>
+      <c r="U3">
+        <v>702</v>
+      </c>
+      <c r="V3">
+        <v>719</v>
+      </c>
+      <c r="W3">
+        <v>718</v>
+      </c>
+      <c r="X3">
+        <v>702</v>
+      </c>
+      <c r="Y3">
+        <v>718</v>
+      </c>
+      <c r="Z3">
+        <v>702</v>
+      </c>
+      <c r="AA3">
+        <v>702</v>
+      </c>
+      <c r="AB3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="e">
+        <f>AVERAGE(H6:Q6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
+        <f>AVERAGE(S6:AB6)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
@@ -16,25 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
-  <si>
-    <t>Trial 1</t>
-  </si>
-  <si>
-    <t>Trial 2</t>
-  </si>
-  <si>
-    <t>Trial 3</t>
-  </si>
-  <si>
-    <t>Trial 4</t>
-  </si>
-  <si>
-    <t>Trial 5</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t># Cells</t>
   </si>
@@ -46,9 +28,6 @@
   </si>
   <si>
     <t>1,000,000 steps</t>
-  </si>
-  <si>
-    <t>Memory Requirements</t>
   </si>
   <si>
     <t>Each Cell</t>
@@ -108,21 +87,6 @@
     <t>Information</t>
   </si>
   <si>
-    <t>Trial 6</t>
-  </si>
-  <si>
-    <t>Trial 7</t>
-  </si>
-  <si>
-    <t>Trial 8</t>
-  </si>
-  <si>
-    <t>Trial 9</t>
-  </si>
-  <si>
-    <t>Trial 10</t>
-  </si>
-  <si>
     <t>Simulink</t>
   </si>
   <si>
@@ -130,9 +94,6 @@
   </si>
   <si>
     <t>Heart</t>
-  </si>
-  <si>
-    <t>Memory</t>
   </si>
   <si>
     <t>SL 1</t>
@@ -208,6 +169,12 @@
   </si>
   <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>Piha Mem</t>
+  </si>
+  <si>
+    <t>Memory Requirements for Piha</t>
   </si>
 </sst>
 </file>
@@ -354,7 +321,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Execution Time</c:v>
+            <c:strRef>
+              <c:f>Scalability!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Piha</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -571,7 +546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Scalability!$L$2:$L$61</c:f>
+              <c:f>Scalability!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
@@ -760,25 +735,19 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="265353088"/>
-        <c:axId val="265410272"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Memory Requirement</c:v>
+            <c:strRef>
+              <c:f>Scalability!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulink</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -995,189 +964,189 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Scalability!$M$2:$M$61</c:f>
+              <c:f>Scalability!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>1.094696044921875</c:v>
+                  <c:v>16.788999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.18939208984375</c:v>
+                  <c:v>42.652999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.284088134765625</c:v>
+                  <c:v>77.402999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3787841796875</c:v>
+                  <c:v>114.68600000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.473480224609375</c:v>
+                  <c:v>146.36799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.56817626953125</c:v>
+                  <c:v>186.39600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.662872314453125</c:v>
+                  <c:v>224.20500000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.757568359375</c:v>
+                  <c:v>258.11800000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.852264404296875</c:v>
+                  <c:v>292.83600000000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.94696044921875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.041656494140625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13.1363525390625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.231048583984375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.32574462890625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.420440673828125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.51513671875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.609832763671875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.70452880859375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20.799224853515625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21.8939208984375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22.988616943359375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.08331298828125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25.178009033203125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.272705078125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27.367401123046875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28.46209716796875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29.556793212890625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.6514892578125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31.746185302734375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.84088134765625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.935577392578125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>35.0302734375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>36.124969482421875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.21966552734375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38.314361572265625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.4090576171875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.503753662109375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41.59844970703125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42.693145751953125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43.787841796875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>44.882537841796875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45.97723388671875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>47.071929931640625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>48.1666259765625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>49.261322021484375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>50.35601806640625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>51.450714111328125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>52.54541015625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>53.640106201171875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>54.73480224609375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>55.829498291015625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>56.9241943359375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>58.018890380859375</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>59.11358642578125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>60.208282470703125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>61.302978515625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>62.397674560546875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>63.49237060546875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.587066650390625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>65.6817626953125</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1192,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="265422304"/>
-        <c:axId val="265411680"/>
+        <c:axId val="269151784"/>
+        <c:axId val="269151392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="265353088"/>
+        <c:axId val="269151784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1311,13 +1280,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265410272"/>
+        <c:crossAx val="269151392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265410272"/>
+        <c:axId val="269151392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,126 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="265353088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="265411680"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-NZ"/>
-                  <a:t>Memory Requirement (MB)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="265422304"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="265422304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265411680"/>
+        <c:crossAx val="269151784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2163,16 +2013,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>226002</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154130</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108239</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>103907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>546388</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>87456</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>37233</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2481,10 +2331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,43 +2348,76 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
         <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -2542,51 +2425,76 @@
         <v>33</v>
       </c>
       <c r="B2">
+        <f>AVERAGE(G2:P2)</f>
+        <v>16.788999999999998</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(R2:AA2)</f>
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="E2">
+        <f>A2*$B$76/1024/1024</f>
+        <v>1.094696044921875</v>
+      </c>
+      <c r="G2">
+        <v>17.66</v>
+      </c>
+      <c r="H2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="I2">
+        <v>16.7</v>
+      </c>
+      <c r="J2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="K2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="L2">
+        <v>16.7</v>
+      </c>
+      <c r="M2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="N2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="O2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="P2">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="R2">
         <v>0.78</v>
       </c>
-      <c r="C2">
+      <c r="S2">
         <v>0.62</v>
       </c>
-      <c r="D2">
+      <c r="T2">
         <v>0.78</v>
       </c>
-      <c r="E2">
+      <c r="U2">
         <v>0.78</v>
       </c>
-      <c r="F2">
+      <c r="V2">
         <v>0.62</v>
       </c>
-      <c r="G2">
+      <c r="W2">
         <v>0.62</v>
       </c>
-      <c r="H2">
+      <c r="X2">
         <v>0.62</v>
       </c>
-      <c r="I2">
+      <c r="Y2">
         <v>0.94</v>
       </c>
-      <c r="J2">
+      <c r="Z2">
         <v>0.78</v>
       </c>
-      <c r="K2">
+      <c r="AA2">
         <v>0.78</v>
-      </c>
-      <c r="L2">
-        <f>AVERAGE(B2:K2)</f>
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="M2">
-        <f>A2*$X$13/1024/1024</f>
-        <v>1.094696044921875</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -2594,71 +2502,76 @@
         <v>66</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B61" si="0">AVERAGE(G3:P3)</f>
+        <v>42.652999999999999</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C61" si="1">AVERAGE(R3:AA3)</f>
+        <v>1.7189999999999994</v>
+      </c>
+      <c r="E3">
+        <f>A3*$B$76/1024/1024</f>
+        <v>2.18939208984375</v>
+      </c>
+      <c r="G3">
+        <v>43.25</v>
+      </c>
+      <c r="H3">
+        <v>42.59</v>
+      </c>
+      <c r="I3">
+        <v>42.430000000000007</v>
+      </c>
+      <c r="J3">
+        <v>42.58</v>
+      </c>
+      <c r="K3">
+        <v>42.430000000000007</v>
+      </c>
+      <c r="L3">
+        <v>42.74</v>
+      </c>
+      <c r="M3">
+        <v>42.74</v>
+      </c>
+      <c r="N3">
+        <v>42.9</v>
+      </c>
+      <c r="O3">
+        <v>42.59</v>
+      </c>
+      <c r="P3">
+        <v>42.28</v>
+      </c>
+      <c r="R3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="C3">
+      <c r="S3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="D3">
+      <c r="T3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="E3">
+      <c r="U3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="F3">
+      <c r="V3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="G3">
+      <c r="W3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="H3">
+      <c r="X3">
         <v>1.87</v>
       </c>
-      <c r="I3">
+      <c r="Y3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="J3">
+      <c r="Z3">
         <v>1.7199999999999998</v>
       </c>
-      <c r="K3">
+      <c r="AA3">
         <v>1.56</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L61" si="0">AVERAGE(B3:K3)</f>
-        <v>1.7189999999999994</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M61" si="1">A3*$X$13/1024/1024</f>
-        <v>2.18939208984375</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W3">
-        <f>33*8 + 69</f>
-        <v>333</v>
-      </c>
-      <c r="X3">
-        <f>W3*AA3</f>
-        <v>2664</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -2666,65 +2579,76 @@
         <v>99</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>77.402999999999992</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2.8380000000000005</v>
+      </c>
+      <c r="E4">
+        <f>A4*$B$76/1024/1024</f>
+        <v>3.284088134765625</v>
+      </c>
+      <c r="G4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="H4">
+        <v>77.22</v>
+      </c>
+      <c r="I4">
+        <v>77.37</v>
+      </c>
+      <c r="J4">
+        <v>77.53</v>
+      </c>
+      <c r="K4">
+        <v>77.22</v>
+      </c>
+      <c r="L4">
+        <v>77.23</v>
+      </c>
+      <c r="M4">
+        <v>77.38000000000001</v>
+      </c>
+      <c r="N4">
+        <v>77.38000000000001</v>
+      </c>
+      <c r="O4">
+        <v>77.53</v>
+      </c>
+      <c r="P4">
+        <v>77.069999999999993</v>
+      </c>
+      <c r="R4">
         <v>2.8100000000000005</v>
       </c>
-      <c r="C4">
+      <c r="S4">
         <v>2.6500000000000004</v>
       </c>
-      <c r="D4">
+      <c r="T4">
         <v>2.8100000000000005</v>
       </c>
-      <c r="E4">
+      <c r="U4">
         <v>2.6500000000000004</v>
       </c>
-      <c r="F4">
+      <c r="V4">
         <v>2.8100000000000005</v>
       </c>
-      <c r="G4">
+      <c r="W4">
         <v>2.8100000000000005</v>
       </c>
-      <c r="H4">
+      <c r="X4">
         <v>2.96</v>
       </c>
-      <c r="I4">
+      <c r="Y4">
         <v>2.96</v>
       </c>
-      <c r="J4">
+      <c r="Z4">
         <v>2.96</v>
       </c>
-      <c r="K4">
+      <c r="AA4">
         <v>2.96</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="0"/>
-        <v>2.8380000000000005</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="1"/>
-        <v>3.284088134765625</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W4">
-        <f>33*1</f>
-        <v>33</v>
-      </c>
-      <c r="X4">
-        <f>W4*AA4</f>
-        <v>66</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -2732,55 +2656,76 @@
         <v>132</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>114.68600000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>4.6160000000000014</v>
+      </c>
+      <c r="E5">
+        <f>A5*$B$76/1024/1024</f>
+        <v>4.3787841796875</v>
+      </c>
+      <c r="G5">
+        <v>114.78</v>
+      </c>
+      <c r="H5">
+        <v>114.5</v>
+      </c>
+      <c r="I5">
+        <v>114.51</v>
+      </c>
+      <c r="J5">
+        <v>114.66</v>
+      </c>
+      <c r="K5">
+        <v>115.28</v>
+      </c>
+      <c r="L5">
+        <v>114.35000000000001</v>
+      </c>
+      <c r="M5">
+        <v>115.58999999999999</v>
+      </c>
+      <c r="N5">
+        <v>114.5</v>
+      </c>
+      <c r="O5">
+        <v>114.5</v>
+      </c>
+      <c r="P5">
+        <v>114.19</v>
+      </c>
+      <c r="R5">
         <v>4.6800000000000006</v>
       </c>
-      <c r="C5">
+      <c r="S5">
         <v>4.5200000000000005</v>
       </c>
-      <c r="D5">
+      <c r="T5">
         <v>4.6800000000000006</v>
       </c>
-      <c r="E5">
+      <c r="U5">
         <v>4.99</v>
       </c>
-      <c r="F5">
+      <c r="V5">
         <v>4.5200000000000005</v>
       </c>
-      <c r="G5">
+      <c r="W5">
         <v>4.6800000000000006</v>
       </c>
-      <c r="H5">
+      <c r="X5">
         <v>4.6800000000000006</v>
       </c>
-      <c r="I5">
+      <c r="Y5">
         <v>4.5200000000000005</v>
       </c>
-      <c r="J5">
+      <c r="Z5">
         <v>4.5200000000000005</v>
       </c>
-      <c r="K5">
+      <c r="AA5">
         <v>4.37</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>4.6160000000000014</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>4.3787841796875</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5">
-        <f>SUM(X3:X4)</f>
-        <v>2730</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -2788,51 +2733,76 @@
         <v>165</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>146.36799999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>7.2849999999999993</v>
+      </c>
+      <c r="E6">
+        <f>A6*$B$76/1024/1024</f>
+        <v>5.473480224609375</v>
+      </c>
+      <c r="G6">
+        <v>147.18</v>
+      </c>
+      <c r="H6">
+        <v>146.02000000000001</v>
+      </c>
+      <c r="I6">
+        <v>146.48999999999998</v>
+      </c>
+      <c r="J6">
+        <v>146.32999999999998</v>
+      </c>
+      <c r="K6">
+        <v>146.32999999999998</v>
+      </c>
+      <c r="L6">
+        <v>146.01000000000002</v>
+      </c>
+      <c r="M6">
+        <v>146.17000000000002</v>
+      </c>
+      <c r="N6">
+        <v>146.17000000000002</v>
+      </c>
+      <c r="O6">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="P6">
+        <v>146.18</v>
+      </c>
+      <c r="R6">
         <v>7.18</v>
       </c>
-      <c r="C6">
+      <c r="S6">
         <v>7.33</v>
       </c>
-      <c r="D6">
+      <c r="T6">
         <v>7.33</v>
       </c>
-      <c r="E6">
+      <c r="U6">
         <v>7.33</v>
       </c>
-      <c r="F6">
+      <c r="V6">
         <v>7.18</v>
       </c>
-      <c r="G6">
+      <c r="W6">
         <v>7.33</v>
       </c>
-      <c r="H6">
+      <c r="X6">
         <v>7.33</v>
       </c>
-      <c r="I6">
+      <c r="Y6">
         <v>7.33</v>
       </c>
-      <c r="J6">
+      <c r="Z6">
         <v>7.33</v>
       </c>
-      <c r="K6">
+      <c r="AA6">
         <v>7.18</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>7.2849999999999993</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>5.473480224609375</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -2840,62 +2810,76 @@
         <v>198</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>186.39600000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>11.095000000000001</v>
+      </c>
+      <c r="E7">
+        <f>A7*$B$76/1024/1024</f>
+        <v>6.56817626953125</v>
+      </c>
+      <c r="G7">
+        <v>187.10000000000002</v>
+      </c>
+      <c r="H7">
+        <v>186.26000000000002</v>
+      </c>
+      <c r="I7">
+        <v>185.79999999999998</v>
+      </c>
+      <c r="J7">
+        <v>186.11</v>
+      </c>
+      <c r="K7">
+        <v>186.26999999999998</v>
+      </c>
+      <c r="L7">
+        <v>186.58</v>
+      </c>
+      <c r="M7">
+        <v>186.42</v>
+      </c>
+      <c r="N7">
+        <v>185.96</v>
+      </c>
+      <c r="O7">
+        <v>186.73</v>
+      </c>
+      <c r="P7">
+        <v>186.73</v>
+      </c>
+      <c r="R7">
         <v>11.080000000000002</v>
       </c>
-      <c r="C7">
+      <c r="S7">
         <v>11.080000000000002</v>
       </c>
-      <c r="D7">
+      <c r="T7">
         <v>11.080000000000002</v>
       </c>
-      <c r="E7">
+      <c r="U7">
         <v>11.23</v>
       </c>
-      <c r="F7">
+      <c r="V7">
         <v>11.080000000000002</v>
       </c>
-      <c r="G7">
+      <c r="W7">
         <v>11.080000000000002</v>
       </c>
-      <c r="H7">
+      <c r="X7">
         <v>11.080000000000002</v>
       </c>
-      <c r="I7">
+      <c r="Y7">
         <v>11.080000000000002</v>
       </c>
-      <c r="J7">
+      <c r="Z7">
         <v>11.080000000000002</v>
       </c>
-      <c r="K7">
+      <c r="AA7">
         <v>11.080000000000002</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>11.095000000000001</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>6.56817626953125</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="W7">
-        <f>34*4</f>
-        <v>136</v>
-      </c>
-      <c r="X7">
-        <f>W7*AA4</f>
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -2903,59 +2887,76 @@
         <v>231</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>224.20500000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>16.411999999999999</v>
+      </c>
+      <c r="E8">
+        <f>A8*$B$76/1024/1024</f>
+        <v>7.662872314453125</v>
+      </c>
+      <c r="G8">
+        <v>224.64</v>
+      </c>
+      <c r="H8">
+        <v>224.02</v>
+      </c>
+      <c r="I8">
+        <v>224.17000000000002</v>
+      </c>
+      <c r="J8">
+        <v>224.18</v>
+      </c>
+      <c r="K8">
+        <v>224.18</v>
+      </c>
+      <c r="L8">
+        <v>224.48000000000002</v>
+      </c>
+      <c r="M8">
+        <v>224.17000000000002</v>
+      </c>
+      <c r="N8">
+        <v>224.32999999999998</v>
+      </c>
+      <c r="O8">
+        <v>223.85999999999999</v>
+      </c>
+      <c r="P8">
+        <v>224.02</v>
+      </c>
+      <c r="R8">
         <v>16.54</v>
       </c>
-      <c r="C8">
+      <c r="S8">
         <v>16.38</v>
       </c>
-      <c r="D8">
+      <c r="T8">
         <v>16.38</v>
       </c>
-      <c r="E8">
+      <c r="U8">
         <v>16.38</v>
       </c>
-      <c r="F8">
+      <c r="V8">
         <v>16.38</v>
       </c>
-      <c r="G8">
+      <c r="W8">
         <v>16.38</v>
       </c>
-      <c r="H8">
+      <c r="X8">
         <v>16.220000000000002</v>
       </c>
-      <c r="I8">
+      <c r="Y8">
         <v>16.54</v>
       </c>
-      <c r="J8">
+      <c r="Z8">
         <v>16.38</v>
       </c>
-      <c r="K8">
+      <c r="AA8">
         <v>16.54</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>16.411999999999999</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>7.662872314453125</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W8">
-        <f>34*6 + 635*200</f>
-        <v>127204</v>
-      </c>
-      <c r="X8">
-        <f>W8*AA3</f>
-        <v>1017632</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -2963,53 +2964,76 @@
         <v>264</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>258.11800000000005</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>23.025000000000002</v>
+      </c>
+      <c r="E9">
+        <f>A9*$B$76/1024/1024</f>
+        <v>8.757568359375</v>
+      </c>
+      <c r="G9">
+        <v>258.02</v>
+      </c>
+      <c r="H9">
+        <v>257.71000000000004</v>
+      </c>
+      <c r="I9">
+        <v>259.43</v>
+      </c>
+      <c r="J9">
+        <v>258.03000000000003</v>
+      </c>
+      <c r="K9">
+        <v>257.87</v>
+      </c>
+      <c r="L9">
+        <v>257.71000000000004</v>
+      </c>
+      <c r="M9">
+        <v>257.71000000000004</v>
+      </c>
+      <c r="N9">
+        <v>258.18</v>
+      </c>
+      <c r="O9">
+        <v>258.03000000000003</v>
+      </c>
+      <c r="P9">
+        <v>258.49</v>
+      </c>
+      <c r="R9">
         <v>23.090000000000003</v>
       </c>
-      <c r="C9">
+      <c r="S9">
         <v>22.93</v>
       </c>
-      <c r="D9">
+      <c r="T9">
         <v>22.93</v>
       </c>
-      <c r="E9">
+      <c r="U9">
         <v>23.24</v>
       </c>
-      <c r="F9">
+      <c r="V9">
         <v>23.090000000000003</v>
       </c>
-      <c r="G9">
+      <c r="W9">
         <v>22.93</v>
       </c>
-      <c r="H9">
+      <c r="X9">
         <v>22.93</v>
       </c>
-      <c r="I9">
+      <c r="Y9">
         <v>23.090000000000003</v>
       </c>
-      <c r="J9">
+      <c r="Z9">
         <v>23.090000000000003</v>
       </c>
-      <c r="K9">
+      <c r="AA9">
         <v>22.93</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>23.025000000000002</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>8.757568359375</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9">
-        <f>34*7 + 635*200</f>
-        <v>127238</v>
-      </c>
-      <c r="X9">
-        <f>W9*AA5</f>
-        <v>127238</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -3017,2296 +3041,2693 @@
         <v>297</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>292.83600000000007</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>31.122999999999998</v>
+      </c>
+      <c r="E10">
+        <f>A10*$B$76/1024/1024</f>
+        <v>9.852264404296875</v>
+      </c>
+      <c r="G10">
+        <v>292.65999999999997</v>
+      </c>
+      <c r="H10">
+        <v>292.19</v>
+      </c>
+      <c r="I10">
+        <v>294.02</v>
+      </c>
+      <c r="J10">
+        <v>295.42</v>
+      </c>
+      <c r="K10">
+        <v>292.5</v>
+      </c>
+      <c r="L10">
+        <v>291.88</v>
+      </c>
+      <c r="M10">
+        <v>292.5</v>
+      </c>
+      <c r="N10">
+        <v>292.97000000000003</v>
+      </c>
+      <c r="O10">
+        <v>292.19</v>
+      </c>
+      <c r="P10">
+        <v>292.02999999999997</v>
+      </c>
+      <c r="R10">
         <v>31.200000000000003</v>
       </c>
-      <c r="C10">
+      <c r="S10">
         <v>31.36</v>
       </c>
-      <c r="D10">
+      <c r="T10">
         <v>30.89</v>
       </c>
-      <c r="E10">
+      <c r="U10">
         <v>31.04</v>
       </c>
-      <c r="F10">
+      <c r="V10">
         <v>31.200000000000003</v>
       </c>
-      <c r="G10">
+      <c r="W10">
         <v>30.73</v>
       </c>
-      <c r="H10">
+      <c r="X10">
         <v>31.36</v>
       </c>
-      <c r="I10">
+      <c r="Y10">
         <v>31.200000000000003</v>
       </c>
-      <c r="J10">
+      <c r="Z10">
         <v>30.89</v>
       </c>
-      <c r="K10">
+      <c r="AA10">
         <v>31.36</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>31.122999999999998</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>9.852264404296875</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X10">
-        <f>SUM(X7:X9)</f>
-        <v>1145142</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>330</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>38.424999999999997</v>
+      </c>
+      <c r="E11">
+        <f>A11*$B$76/1024/1024</f>
+        <v>10.94696044921875</v>
+      </c>
+      <c r="R11">
         <v>38.380000000000003</v>
       </c>
-      <c r="C11">
+      <c r="S11">
         <v>38.380000000000003</v>
       </c>
-      <c r="D11">
+      <c r="T11">
         <v>38.53</v>
       </c>
-      <c r="E11">
+      <c r="U11">
         <v>38.53</v>
       </c>
-      <c r="F11">
+      <c r="V11">
         <v>38.380000000000003</v>
       </c>
-      <c r="G11">
+      <c r="W11">
         <v>38.380000000000003</v>
       </c>
-      <c r="H11">
+      <c r="X11">
         <v>38.380000000000003</v>
       </c>
-      <c r="I11">
+      <c r="Y11">
         <v>38.53</v>
       </c>
-      <c r="J11">
+      <c r="Z11">
         <v>38.380000000000003</v>
       </c>
-      <c r="K11">
+      <c r="AA11">
         <v>38.380000000000003</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>38.424999999999997</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>10.94696044921875</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>363</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>45.940999999999995</v>
+      </c>
+      <c r="E12">
+        <f>A12*$B$76/1024/1024</f>
+        <v>12.041656494140625</v>
+      </c>
+      <c r="R12">
         <v>45.86</v>
       </c>
-      <c r="C12">
+      <c r="S12">
         <v>45.86</v>
       </c>
-      <c r="D12">
+      <c r="T12">
         <v>46.02</v>
       </c>
-      <c r="E12">
+      <c r="U12">
         <v>45.86</v>
       </c>
-      <c r="F12">
+      <c r="V12">
         <v>45.709999999999994</v>
       </c>
-      <c r="G12">
+      <c r="W12">
         <v>46.02</v>
       </c>
-      <c r="H12">
+      <c r="X12">
         <v>45.86</v>
       </c>
-      <c r="I12">
+      <c r="Y12">
         <v>46.180000000000007</v>
       </c>
-      <c r="J12">
+      <c r="Z12">
         <v>46.02</v>
       </c>
-      <c r="K12">
+      <c r="AA12">
         <v>46.02</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>45.940999999999995</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>12.041656494140625</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X12">
-        <f>X5+X10</f>
-        <v>1147872</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12">
-        <f>114892*1024</f>
-        <v>117649408</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>396</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>52.601999999999997</v>
+      </c>
+      <c r="E13">
+        <f>A13*$B$76/1024/1024</f>
+        <v>13.1363525390625</v>
+      </c>
+      <c r="R13">
         <v>52.569999999999993</v>
       </c>
-      <c r="C13">
+      <c r="S13">
         <v>52.42</v>
       </c>
-      <c r="D13">
+      <c r="T13">
         <v>52.73</v>
       </c>
-      <c r="E13">
+      <c r="U13">
         <v>52.569999999999993</v>
       </c>
-      <c r="F13">
+      <c r="V13">
         <v>52.569999999999993</v>
       </c>
-      <c r="G13">
+      <c r="W13">
         <v>52.1</v>
       </c>
-      <c r="H13">
+      <c r="X13">
         <v>52.569999999999993</v>
       </c>
-      <c r="I13">
+      <c r="Y13">
         <v>52.569999999999993</v>
       </c>
-      <c r="J13">
+      <c r="Z13">
         <v>52.569999999999993</v>
       </c>
-      <c r="K13">
+      <c r="AA13">
         <v>53.35</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
-        <v>52.601999999999997</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>13.1363525390625</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X13">
-        <f>X12/33</f>
-        <v>34784</v>
-      </c>
-      <c r="Z13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13">
-        <f>AA12/3300</f>
-        <v>35651.335757575755</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>429</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>59.35799999999999</v>
+      </c>
+      <c r="E14">
+        <f>A14*$B$76/1024/1024</f>
+        <v>14.231048583984375</v>
+      </c>
+      <c r="R14">
         <v>59.12</v>
       </c>
-      <c r="C14">
+      <c r="S14">
         <v>59.12</v>
       </c>
-      <c r="D14">
+      <c r="T14">
         <v>59.44</v>
       </c>
-      <c r="E14">
+      <c r="U14">
         <v>59.12</v>
       </c>
-      <c r="F14">
+      <c r="V14">
         <v>59.12</v>
       </c>
-      <c r="G14">
+      <c r="W14">
         <v>59.44</v>
       </c>
-      <c r="H14">
+      <c r="X14">
         <v>59.28</v>
       </c>
-      <c r="I14">
+      <c r="Y14">
         <v>59.44</v>
       </c>
-      <c r="J14">
+      <c r="Z14">
         <v>59.75</v>
       </c>
-      <c r="K14">
+      <c r="AA14">
         <v>59.75</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
-        <v>59.35799999999999</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>14.231048583984375</v>
-      </c>
-      <c r="O14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>462</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>65.38000000000001</v>
+      </c>
+      <c r="E15">
+        <f>A15*$B$76/1024/1024</f>
+        <v>15.32574462890625</v>
+      </c>
+      <c r="R15">
         <v>66.3</v>
       </c>
-      <c r="C15">
+      <c r="S15">
         <v>65.05</v>
       </c>
-      <c r="D15">
+      <c r="T15">
         <v>65.679999999999993</v>
       </c>
-      <c r="E15">
+      <c r="U15">
         <v>64.740000000000009</v>
       </c>
-      <c r="F15">
+      <c r="V15">
         <v>64.900000000000006</v>
       </c>
-      <c r="G15">
+      <c r="W15">
         <v>65.05</v>
       </c>
-      <c r="H15">
+      <c r="X15">
         <v>64.740000000000009</v>
       </c>
-      <c r="I15">
+      <c r="Y15">
         <v>66.14</v>
       </c>
-      <c r="J15">
+      <c r="Z15">
         <v>65.990000000000009</v>
       </c>
-      <c r="K15">
+      <c r="AA15">
         <v>65.209999999999994</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
-        <v>65.38000000000001</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>15.32574462890625</v>
-      </c>
-      <c r="O15" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15">
-        <f>8*1024*1024</f>
-        <v>8388608</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>495</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>71.759999999999991</v>
+      </c>
+      <c r="E16">
+        <f>A16*$B$76/1024/1024</f>
+        <v>16.420440673828125</v>
+      </c>
+      <c r="R16">
         <v>73.010000000000005</v>
       </c>
-      <c r="C16">
+      <c r="S16">
         <v>72.38000000000001</v>
       </c>
-      <c r="D16">
+      <c r="T16">
         <v>71.14</v>
       </c>
-      <c r="E16">
+      <c r="U16">
         <v>71.92</v>
       </c>
-      <c r="F16">
+      <c r="V16">
         <v>71.599999999999994</v>
       </c>
-      <c r="G16">
+      <c r="W16">
         <v>71.92</v>
       </c>
-      <c r="H16">
+      <c r="X16">
         <v>71.599999999999994</v>
       </c>
-      <c r="I16">
+      <c r="Y16">
         <v>71.449999999999989</v>
       </c>
-      <c r="J16">
+      <c r="Z16">
         <v>71.289999999999992</v>
       </c>
-      <c r="K16">
+      <c r="AA16">
         <v>71.289999999999992</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>71.759999999999991</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>16.420440673828125</v>
-      </c>
-      <c r="O16" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16">
-        <f>W15/X13</f>
-        <v>241.16283348666053</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>528</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>77.626000000000005</v>
+      </c>
+      <c r="E17">
+        <f>A17*$B$76/1024/1024</f>
+        <v>17.51513671875</v>
+      </c>
+      <c r="R17">
         <v>77.53</v>
       </c>
-      <c r="C17">
+      <c r="S17">
         <v>77.38000000000001</v>
       </c>
-      <c r="D17">
+      <c r="T17">
         <v>77.53</v>
       </c>
-      <c r="E17">
+      <c r="U17">
         <v>77.84</v>
       </c>
-      <c r="F17">
+      <c r="V17">
         <v>77.38000000000001</v>
       </c>
-      <c r="G17">
+      <c r="W17">
         <v>77.53</v>
       </c>
-      <c r="H17">
+      <c r="X17">
         <v>77.38000000000001</v>
       </c>
-      <c r="I17">
+      <c r="Y17">
         <v>77.69</v>
       </c>
-      <c r="J17">
+      <c r="Z17">
         <v>78</v>
       </c>
-      <c r="K17">
+      <c r="AA17">
         <v>78</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
-        <v>77.626000000000005</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>17.51513671875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>561</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>81.759</v>
+      </c>
+      <c r="E18">
+        <f>A18*$B$76/1024/1024</f>
+        <v>18.609832763671875</v>
+      </c>
+      <c r="R18">
         <v>81.739999999999995</v>
       </c>
-      <c r="C18">
+      <c r="S18">
         <v>81.899999999999991</v>
       </c>
-      <c r="D18">
+      <c r="T18">
         <v>81.59</v>
       </c>
-      <c r="E18">
+      <c r="U18">
         <v>81.28</v>
       </c>
-      <c r="F18">
+      <c r="V18">
         <v>81.899999999999991</v>
       </c>
-      <c r="G18">
+      <c r="W18">
         <v>81.739999999999995</v>
       </c>
-      <c r="H18">
+      <c r="X18">
         <v>81.430000000000007</v>
       </c>
-      <c r="I18">
+      <c r="Y18">
         <v>82.99</v>
       </c>
-      <c r="J18">
+      <c r="Z18">
         <v>81.430000000000007</v>
       </c>
-      <c r="K18">
+      <c r="AA18">
         <v>81.59</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>81.759</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>18.609832763671875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>594</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>84.864000000000019</v>
+      </c>
+      <c r="E19">
+        <f>A19*$B$76/1024/1024</f>
+        <v>19.70452880859375</v>
+      </c>
+      <c r="R19">
         <v>84.55</v>
       </c>
-      <c r="C19">
+      <c r="S19">
         <v>85.33</v>
       </c>
-      <c r="D19">
+      <c r="T19">
         <v>85.02000000000001</v>
       </c>
-      <c r="E19">
+      <c r="U19">
         <v>85.18</v>
       </c>
-      <c r="F19">
+      <c r="V19">
         <v>84.710000000000008</v>
       </c>
-      <c r="G19">
+      <c r="W19">
         <v>84.710000000000008</v>
       </c>
-      <c r="H19">
+      <c r="X19">
         <v>84.710000000000008</v>
       </c>
-      <c r="I19">
+      <c r="Y19">
         <v>84.860000000000014</v>
       </c>
-      <c r="J19">
+      <c r="Z19">
         <v>84.710000000000008</v>
       </c>
-      <c r="K19">
+      <c r="AA19">
         <v>84.860000000000014</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>84.864000000000019</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>19.70452880859375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>627</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>91.266999999999996</v>
+      </c>
+      <c r="E20">
+        <f>A20*$B$76/1024/1024</f>
+        <v>20.799224853515625</v>
+      </c>
+      <c r="R20">
         <v>89.860000000000014</v>
       </c>
-      <c r="C20">
+      <c r="S20">
         <v>89.710000000000008</v>
       </c>
-      <c r="D20">
+      <c r="T20">
         <v>93.610000000000014</v>
       </c>
-      <c r="E20">
+      <c r="U20">
         <v>91.110000000000014</v>
       </c>
-      <c r="F20">
+      <c r="V20">
         <v>90.02000000000001</v>
       </c>
-      <c r="G20">
+      <c r="W20">
         <v>93.14</v>
       </c>
-      <c r="H20">
+      <c r="X20">
         <v>93.14</v>
       </c>
-      <c r="I20">
+      <c r="Y20">
         <v>89.860000000000014</v>
       </c>
-      <c r="J20">
+      <c r="Z20">
         <v>90.169999999999987</v>
       </c>
-      <c r="K20">
+      <c r="AA20">
         <v>92.05</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>91.266999999999996</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>20.799224853515625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>660</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>96.097999999999999</v>
+      </c>
+      <c r="E21">
+        <f>A21*$B$76/1024/1024</f>
+        <v>21.8939208984375</v>
+      </c>
+      <c r="R21">
         <v>94.85</v>
       </c>
-      <c r="C21">
+      <c r="S21">
         <v>94.54</v>
       </c>
-      <c r="D21">
+      <c r="T21">
         <v>95.16</v>
       </c>
-      <c r="E21">
+      <c r="U21">
         <v>97.66</v>
       </c>
-      <c r="F21">
+      <c r="V21">
         <v>95.009999999999991</v>
       </c>
-      <c r="G21">
+      <c r="W21">
         <v>95.32</v>
       </c>
-      <c r="H21">
+      <c r="X21">
         <v>98.59</v>
       </c>
-      <c r="I21">
+      <c r="Y21">
         <v>97.5</v>
       </c>
-      <c r="J21">
+      <c r="Z21">
         <v>97.5</v>
       </c>
-      <c r="K21">
+      <c r="AA21">
         <v>94.85</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>96.097999999999999</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>21.8939208984375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>693</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>100.40200000000002</v>
+      </c>
+      <c r="E22">
+        <f>A22*$B$76/1024/1024</f>
+        <v>22.988616943359375</v>
+      </c>
+      <c r="R22">
         <v>99.36999999999999</v>
       </c>
-      <c r="C22">
+      <c r="S22">
         <v>99.22</v>
       </c>
-      <c r="D22">
+      <c r="T22">
         <v>99.36999999999999</v>
       </c>
-      <c r="E22">
+      <c r="U22">
         <v>99.36999999999999</v>
       </c>
-      <c r="F22">
+      <c r="V22">
         <v>99.53</v>
       </c>
-      <c r="G22">
+      <c r="W22">
         <v>101.4</v>
       </c>
-      <c r="H22">
+      <c r="X22">
         <v>99.69</v>
       </c>
-      <c r="I22">
+      <c r="Y22">
         <v>103.43</v>
       </c>
-      <c r="J22">
+      <c r="Z22">
         <v>99.36999999999999</v>
       </c>
-      <c r="K22">
+      <c r="AA22">
         <v>103.27</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>100.40200000000002</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>22.988616943359375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>726</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>104.66100000000002</v>
+      </c>
+      <c r="E23">
+        <f>A23*$B$76/1024/1024</f>
+        <v>24.08331298828125</v>
+      </c>
+      <c r="R23">
         <v>104.83000000000001</v>
       </c>
-      <c r="C23">
+      <c r="S23">
         <v>104.52</v>
       </c>
-      <c r="D23">
+      <c r="T23">
         <v>104.52</v>
       </c>
-      <c r="E23">
+      <c r="U23">
         <v>104.68</v>
       </c>
-      <c r="F23">
+      <c r="V23">
         <v>104.83000000000001</v>
       </c>
-      <c r="G23">
+      <c r="W23">
         <v>104.68</v>
       </c>
-      <c r="H23">
+      <c r="X23">
         <v>104.68</v>
       </c>
-      <c r="I23">
+      <c r="Y23">
         <v>104.83000000000001</v>
       </c>
-      <c r="J23">
+      <c r="Z23">
         <v>104.36</v>
       </c>
-      <c r="K23">
+      <c r="AA23">
         <v>104.68</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>104.66100000000002</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>24.08331298828125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>759</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>112.742</v>
+      </c>
+      <c r="E24">
+        <f>A24*$B$76/1024/1024</f>
+        <v>25.178009033203125</v>
+      </c>
+      <c r="R24">
         <v>111.85000000000001</v>
       </c>
-      <c r="C24">
+      <c r="S24">
         <v>113.41</v>
       </c>
-      <c r="D24">
+      <c r="T24">
         <v>111.7</v>
       </c>
-      <c r="E24">
+      <c r="U24">
         <v>111.53999999999999</v>
       </c>
-      <c r="F24">
+      <c r="V24">
         <v>111.85000000000001</v>
       </c>
-      <c r="G24">
+      <c r="W24">
         <v>111.7</v>
       </c>
-      <c r="H24">
+      <c r="X24">
         <v>112.47999999999999</v>
       </c>
-      <c r="I24">
+      <c r="Y24">
         <v>114.97</v>
       </c>
-      <c r="J24">
+      <c r="Z24">
         <v>112.32</v>
       </c>
-      <c r="K24">
+      <c r="AA24">
         <v>115.60000000000001</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
-        <v>112.742</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>25.178009033203125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>792</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>118.29400000000001</v>
+      </c>
+      <c r="E25">
+        <f>A25*$B$76/1024/1024</f>
+        <v>26.272705078125</v>
+      </c>
+      <c r="R25">
         <v>115.75</v>
       </c>
-      <c r="C25">
+      <c r="S25">
         <v>116.53</v>
       </c>
-      <c r="D25">
+      <c r="T25">
         <v>119.33999999999999</v>
       </c>
-      <c r="E25">
+      <c r="U25">
         <v>122.15</v>
       </c>
-      <c r="F25">
+      <c r="V25">
         <v>122.77</v>
       </c>
-      <c r="G25">
+      <c r="W25">
         <v>116.69</v>
       </c>
-      <c r="H25">
+      <c r="X25">
         <v>116.69</v>
       </c>
-      <c r="I25">
+      <c r="Y25">
         <v>115.75</v>
       </c>
-      <c r="J25">
+      <c r="Z25">
         <v>115.75</v>
       </c>
-      <c r="K25">
+      <c r="AA25">
         <v>121.52</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
-        <v>118.29400000000001</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>26.272705078125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>825</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>121.571</v>
+      </c>
+      <c r="E26">
+        <f>A26*$B$76/1024/1024</f>
+        <v>27.367401123046875</v>
+      </c>
+      <c r="R26">
         <v>124.17999999999999</v>
       </c>
-      <c r="C26">
+      <c r="S26">
         <v>120.9</v>
       </c>
-      <c r="D26">
+      <c r="T26">
         <v>120.58999999999999</v>
       </c>
-      <c r="E26">
+      <c r="U26">
         <v>120.74</v>
       </c>
-      <c r="F26">
+      <c r="V26">
         <v>120.58999999999999</v>
       </c>
-      <c r="G26">
+      <c r="W26">
         <v>120.74</v>
       </c>
-      <c r="H26">
+      <c r="X26">
         <v>125.27</v>
       </c>
-      <c r="I26">
+      <c r="Y26">
         <v>120.74</v>
       </c>
-      <c r="J26">
+      <c r="Z26">
         <v>121.06</v>
       </c>
-      <c r="K26">
+      <c r="AA26">
         <v>120.9</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
-        <v>121.571</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>27.367401123046875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>858</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>127.53000000000002</v>
+      </c>
+      <c r="E27">
+        <f>A27*$B$76/1024/1024</f>
+        <v>28.46209716796875</v>
+      </c>
+      <c r="R27">
         <v>127.92</v>
       </c>
-      <c r="C27">
+      <c r="S27">
         <v>127.75999999999999</v>
       </c>
-      <c r="D27">
+      <c r="T27">
         <v>128.39000000000001</v>
       </c>
-      <c r="E27">
+      <c r="U27">
         <v>127.60999999999999</v>
       </c>
-      <c r="F27">
+      <c r="V27">
         <v>126.98</v>
       </c>
-      <c r="G27">
+      <c r="W27">
         <v>128.07999999999998</v>
       </c>
-      <c r="H27">
+      <c r="X27">
         <v>126.98</v>
       </c>
-      <c r="I27">
+      <c r="Y27">
         <v>127.60999999999999</v>
       </c>
-      <c r="J27">
+      <c r="Z27">
         <v>127.30000000000001</v>
       </c>
-      <c r="K27">
+      <c r="AA27">
         <v>126.67</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
-        <v>127.53000000000002</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>28.46209716796875</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>891</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>131.96099999999998</v>
+      </c>
+      <c r="E28">
+        <f>A28*$B$76/1024/1024</f>
+        <v>29.556793212890625</v>
+      </c>
+      <c r="R28">
         <v>134.32</v>
       </c>
-      <c r="C28">
+      <c r="S28">
         <v>131.98000000000002</v>
       </c>
-      <c r="D28">
+      <c r="T28">
         <v>131.35</v>
       </c>
-      <c r="E28">
+      <c r="U28">
         <v>131.51</v>
       </c>
-      <c r="F28">
+      <c r="V28">
         <v>131.66</v>
       </c>
-      <c r="G28">
+      <c r="W28">
         <v>132.13</v>
       </c>
-      <c r="H28">
+      <c r="X28">
         <v>131.51</v>
       </c>
-      <c r="I28">
+      <c r="Y28">
         <v>131.51</v>
       </c>
-      <c r="J28">
+      <c r="Z28">
         <v>131.66</v>
       </c>
-      <c r="K28">
+      <c r="AA28">
         <v>131.98000000000002</v>
       </c>
-      <c r="L28">
-        <f t="shared" si="0"/>
-        <v>131.96099999999998</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>29.556793212890625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>924</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>139.089</v>
+      </c>
+      <c r="E29">
+        <f>A29*$B$76/1024/1024</f>
+        <v>30.6514892578125</v>
+      </c>
+      <c r="R29">
         <v>137.12</v>
       </c>
-      <c r="C29">
+      <c r="S29">
         <v>139.93</v>
       </c>
-      <c r="D29">
+      <c r="T29">
         <v>137.59</v>
       </c>
-      <c r="E29">
+      <c r="U29">
         <v>138.53</v>
       </c>
-      <c r="F29">
+      <c r="V29">
         <v>137.44</v>
       </c>
-      <c r="G29">
+      <c r="W29">
         <v>144.30000000000001</v>
       </c>
-      <c r="H29">
+      <c r="X29">
         <v>143.36000000000001</v>
       </c>
-      <c r="I29">
+      <c r="Y29">
         <v>137.59</v>
       </c>
-      <c r="J29">
+      <c r="Z29">
         <v>137.75</v>
       </c>
-      <c r="K29">
+      <c r="AA29">
         <v>137.28</v>
       </c>
-      <c r="L29">
-        <f t="shared" si="0"/>
-        <v>139.089</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>30.6514892578125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>957</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>146.16999999999999</v>
+      </c>
+      <c r="E30">
+        <f>A30*$B$76/1024/1024</f>
+        <v>31.746185302734375</v>
+      </c>
+      <c r="R30">
         <v>144.77000000000001</v>
       </c>
-      <c r="C30">
+      <c r="S30">
         <v>144.13999999999999</v>
       </c>
-      <c r="D30">
+      <c r="T30">
         <v>146.47999999999999</v>
       </c>
-      <c r="E30">
+      <c r="U30">
         <v>143.36000000000001</v>
       </c>
-      <c r="F30">
+      <c r="V30">
         <v>147.11000000000001</v>
       </c>
-      <c r="G30">
+      <c r="W30">
         <v>144.92000000000002</v>
       </c>
-      <c r="H30">
+      <c r="X30">
         <v>150.85000000000002</v>
       </c>
-      <c r="I30">
+      <c r="Y30">
         <v>147.72999999999999</v>
       </c>
-      <c r="J30">
+      <c r="Z30">
         <v>145.86000000000001</v>
       </c>
-      <c r="K30">
+      <c r="AA30">
         <v>146.47999999999999</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="0"/>
-        <v>146.16999999999999</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>31.746185302734375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>990</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>148.38600000000002</v>
+      </c>
+      <c r="E31">
+        <f>A31*$B$76/1024/1024</f>
+        <v>32.84088134765625</v>
+      </c>
+      <c r="R31">
         <v>151.79</v>
       </c>
-      <c r="C31">
+      <c r="S31">
         <v>150.38</v>
       </c>
-      <c r="D31">
+      <c r="T31">
         <v>146.47999999999999</v>
       </c>
-      <c r="E31">
+      <c r="U31">
         <v>150.38</v>
       </c>
-      <c r="F31">
+      <c r="V31">
         <v>146.80000000000001</v>
       </c>
-      <c r="G31">
+      <c r="W31">
         <v>146.17000000000002</v>
       </c>
-      <c r="H31">
+      <c r="X31">
         <v>150.07</v>
       </c>
-      <c r="I31">
+      <c r="Y31">
         <v>146.63999999999999</v>
       </c>
-      <c r="J31">
+      <c r="Z31">
         <v>147.26000000000002</v>
       </c>
-      <c r="K31">
+      <c r="AA31">
         <v>147.88999999999999</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="0"/>
-        <v>148.38600000000002</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>32.84088134765625</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1023</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>165.96800000000002</v>
+      </c>
+      <c r="E32">
+        <f>A32*$B$76/1024/1024</f>
+        <v>33.935577392578125</v>
+      </c>
+      <c r="R32">
         <v>168.64000000000001</v>
       </c>
-      <c r="C32">
+      <c r="S32">
         <v>165.67000000000002</v>
       </c>
-      <c r="D32">
+      <c r="T32">
         <v>166.29999999999998</v>
       </c>
-      <c r="E32">
+      <c r="U32">
         <v>165.82999999999998</v>
       </c>
-      <c r="F32">
+      <c r="V32">
         <v>166.61</v>
       </c>
-      <c r="G32">
+      <c r="W32">
         <v>164.42000000000002</v>
       </c>
-      <c r="H32">
+      <c r="X32">
         <v>165.98</v>
       </c>
-      <c r="I32">
+      <c r="Y32">
         <v>165.04999999999998</v>
       </c>
-      <c r="J32">
+      <c r="Z32">
         <v>165.98</v>
       </c>
-      <c r="K32">
+      <c r="AA32">
         <v>165.2</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="0"/>
-        <v>165.96800000000002</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>33.935577392578125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1056</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>166.64600000000002</v>
+      </c>
+      <c r="E33">
+        <f>A33*$B$76/1024/1024</f>
+        <v>35.0302734375</v>
+      </c>
+      <c r="R33">
         <v>166.14999999999998</v>
       </c>
-      <c r="C33">
+      <c r="S33">
         <v>170.98</v>
       </c>
-      <c r="D33">
+      <c r="T33">
         <v>169.57999999999998</v>
       </c>
-      <c r="E33">
+      <c r="U33">
         <v>169.26999999999998</v>
       </c>
-      <c r="F33">
+      <c r="V33">
         <v>166.14999999999998</v>
       </c>
-      <c r="G33">
+      <c r="W33">
         <v>168.79999999999998</v>
       </c>
-      <c r="H33">
+      <c r="X33">
         <v>160.06</v>
       </c>
-      <c r="I33">
+      <c r="Y33">
         <v>160.37</v>
       </c>
-      <c r="J33">
+      <c r="Z33">
         <v>166.46</v>
       </c>
-      <c r="K33">
+      <c r="AA33">
         <v>168.64000000000001</v>
       </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>166.64600000000002</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>35.0302734375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1089</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>170.52499999999998</v>
+      </c>
+      <c r="E34">
+        <f>A34*$B$76/1024/1024</f>
+        <v>36.124969482421875</v>
+      </c>
+      <c r="R34">
         <v>169.89000000000001</v>
       </c>
-      <c r="C34">
+      <c r="S34">
         <v>171.13</v>
       </c>
-      <c r="D34">
+      <c r="T34">
         <v>174.41</v>
       </c>
-      <c r="E34">
+      <c r="U34">
         <v>171.29000000000002</v>
       </c>
-      <c r="F34">
+      <c r="V34">
         <v>167.07999999999998</v>
       </c>
-      <c r="G34">
+      <c r="W34">
         <v>168.79000000000002</v>
       </c>
-      <c r="H34">
+      <c r="X34">
         <v>168.48</v>
       </c>
-      <c r="I34">
+      <c r="Y34">
         <v>171.6</v>
       </c>
-      <c r="J34">
+      <c r="Z34">
         <v>171.76</v>
       </c>
-      <c r="K34">
+      <c r="AA34">
         <v>170.82</v>
       </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>170.52499999999998</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>36.124969482421875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1122</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>172.89400000000001</v>
+      </c>
+      <c r="E35">
+        <f>A35*$B$76/1024/1024</f>
+        <v>37.21966552734375</v>
+      </c>
+      <c r="R35">
         <v>176.28</v>
       </c>
-      <c r="C35">
+      <c r="S35">
         <v>173</v>
       </c>
-      <c r="D35">
+      <c r="T35">
         <v>173</v>
       </c>
-      <c r="E35">
+      <c r="U35">
         <v>170.35</v>
       </c>
-      <c r="F35">
+      <c r="V35">
         <v>172.85</v>
       </c>
-      <c r="G35">
+      <c r="W35">
         <v>169.88</v>
       </c>
-      <c r="H35">
+      <c r="X35">
         <v>173</v>
       </c>
-      <c r="I35">
+      <c r="Y35">
         <v>172.85</v>
       </c>
-      <c r="J35">
+      <c r="Z35">
         <v>173.32</v>
       </c>
-      <c r="K35">
+      <c r="AA35">
         <v>174.41</v>
       </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>172.89400000000001</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>37.21966552734375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1155</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>184.298</v>
+      </c>
+      <c r="E36">
+        <f>A36*$B$76/1024/1024</f>
+        <v>38.314361572265625</v>
+      </c>
+      <c r="R36">
         <v>189.38</v>
       </c>
-      <c r="C36">
+      <c r="S36">
         <v>182.04999999999998</v>
       </c>
-      <c r="D36">
+      <c r="T36">
         <v>180.49</v>
       </c>
-      <c r="E36">
+      <c r="U36">
         <v>194.22</v>
       </c>
-      <c r="F36">
+      <c r="V36">
         <v>185.01999999999998</v>
       </c>
-      <c r="G36">
+      <c r="W36">
         <v>181.74</v>
       </c>
-      <c r="H36">
+      <c r="X36">
         <v>178.31</v>
       </c>
-      <c r="I36">
+      <c r="Y36">
         <v>181.58</v>
       </c>
-      <c r="J36">
+      <c r="Z36">
         <v>185.33</v>
       </c>
-      <c r="K36">
+      <c r="AA36">
         <v>184.86</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>184.298</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>38.314361572265625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1188</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>182.97199999999998</v>
+      </c>
+      <c r="E37">
+        <f>A37*$B$76/1024/1024</f>
+        <v>39.4090576171875</v>
+      </c>
+      <c r="R37">
         <v>182.68</v>
       </c>
-      <c r="C37">
+      <c r="S37">
         <v>181.58</v>
       </c>
-      <c r="D37">
+      <c r="T37">
         <v>183.76999999999998</v>
       </c>
-      <c r="E37">
+      <c r="U37">
         <v>183.14</v>
       </c>
-      <c r="F37">
+      <c r="V37">
         <v>183.61</v>
       </c>
-      <c r="G37">
+      <c r="W37">
         <v>183.61</v>
       </c>
-      <c r="H37">
+      <c r="X37">
         <v>182.68</v>
       </c>
-      <c r="I37">
+      <c r="Y37">
         <v>181.58</v>
       </c>
-      <c r="J37">
+      <c r="Z37">
         <v>183.76999999999998</v>
       </c>
-      <c r="K37">
+      <c r="AA37">
         <v>183.29999999999998</v>
       </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>182.97199999999998</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>39.4090576171875</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1221</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>194.17299999999997</v>
+      </c>
+      <c r="E38">
+        <f>A38*$B$76/1024/1024</f>
+        <v>40.503753662109375</v>
+      </c>
+      <c r="R38">
         <v>190.32</v>
       </c>
-      <c r="C38">
+      <c r="S38">
         <v>205.76</v>
       </c>
-      <c r="D38">
+      <c r="T38">
         <v>190.94</v>
       </c>
-      <c r="E38">
+      <c r="U38">
         <v>192.04000000000002</v>
       </c>
-      <c r="F38">
+      <c r="V38">
         <v>191.72</v>
       </c>
-      <c r="G38">
+      <c r="W38">
         <v>193.6</v>
       </c>
-      <c r="H38">
+      <c r="X38">
         <v>194.38</v>
       </c>
-      <c r="I38">
+      <c r="Y38">
         <v>195</v>
       </c>
-      <c r="J38">
+      <c r="Z38">
         <v>192.19</v>
       </c>
-      <c r="K38">
+      <c r="AA38">
         <v>195.78</v>
       </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>194.17299999999997</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>40.503753662109375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1254</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>206.45100000000002</v>
+      </c>
+      <c r="E39">
+        <f>A39*$B$76/1024/1024</f>
+        <v>41.59844970703125</v>
+      </c>
+      <c r="R39">
         <v>206.86</v>
       </c>
-      <c r="C39">
+      <c r="S39">
         <v>207.48000000000002</v>
       </c>
-      <c r="D39">
+      <c r="T39">
         <v>206.39</v>
       </c>
-      <c r="E39">
+      <c r="U39">
         <v>206.54</v>
       </c>
-      <c r="F39">
+      <c r="V39">
         <v>207.95000000000002</v>
       </c>
-      <c r="G39">
+      <c r="W39">
         <v>209.20000000000002</v>
       </c>
-      <c r="H39">
+      <c r="X39">
         <v>202.95999999999998</v>
       </c>
-      <c r="I39">
+      <c r="Y39">
         <v>208.1</v>
       </c>
-      <c r="J39">
+      <c r="Z39">
         <v>205.76</v>
       </c>
-      <c r="K39">
+      <c r="AA39">
         <v>203.27</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>206.45100000000002</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>41.59844970703125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1287</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>224.84299999999999</v>
+      </c>
+      <c r="E40">
+        <f>A40*$B$76/1024/1024</f>
+        <v>42.693145751953125</v>
+      </c>
+      <c r="R40">
         <v>222.60999999999999</v>
       </c>
-      <c r="C40">
+      <c r="S40">
         <v>228.70000000000002</v>
       </c>
-      <c r="D40">
+      <c r="T40">
         <v>224.8</v>
       </c>
-      <c r="E40">
+      <c r="U40">
         <v>219.18</v>
       </c>
-      <c r="F40">
+      <c r="V40">
         <v>224.02</v>
       </c>
-      <c r="G40">
+      <c r="W40">
         <v>226.51</v>
       </c>
-      <c r="H40">
+      <c r="X40">
         <v>226.20000000000002</v>
       </c>
-      <c r="I40">
+      <c r="Y40">
         <v>225.26</v>
       </c>
-      <c r="J40">
+      <c r="Z40">
         <v>226.98000000000002</v>
       </c>
-      <c r="K40">
+      <c r="AA40">
         <v>224.17000000000002</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>224.84299999999999</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>42.693145751953125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1320</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>219.429</v>
+      </c>
+      <c r="E41">
+        <f>A41*$B$76/1024/1024</f>
+        <v>43.787841796875</v>
+      </c>
+      <c r="R41">
         <v>227.76</v>
       </c>
-      <c r="C41">
+      <c r="S41">
         <v>214.5</v>
       </c>
-      <c r="D41">
+      <c r="T41">
         <v>215.59</v>
       </c>
-      <c r="E41">
+      <c r="U41">
         <v>214.97</v>
       </c>
-      <c r="F41">
+      <c r="V41">
         <v>225.26</v>
       </c>
-      <c r="G41">
+      <c r="W41">
         <v>217.93</v>
       </c>
-      <c r="H41">
+      <c r="X41">
         <v>217</v>
       </c>
-      <c r="I41">
+      <c r="Y41">
         <v>219.18</v>
       </c>
-      <c r="J41">
+      <c r="Z41">
         <v>218.4</v>
       </c>
-      <c r="K41">
+      <c r="AA41">
         <v>223.70000000000002</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>219.429</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="1"/>
-        <v>43.787841796875</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1353</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>232.77699999999996</v>
+      </c>
+      <c r="E42">
+        <f>A42*$B$76/1024/1024</f>
+        <v>44.882537841796875</v>
+      </c>
+      <c r="R42">
         <v>226.52999999999997</v>
       </c>
-      <c r="C42">
+      <c r="S42">
         <v>231.35999999999999</v>
       </c>
-      <c r="D42">
+      <c r="T42">
         <v>235.89</v>
       </c>
-      <c r="E42">
+      <c r="U42">
         <v>231.05</v>
       </c>
-      <c r="F42">
+      <c r="V42">
         <v>235.10000000000002</v>
       </c>
-      <c r="G42">
+      <c r="W42">
         <v>231.51</v>
       </c>
-      <c r="H42">
+      <c r="X42">
         <v>236.81</v>
       </c>
-      <c r="I42">
+      <c r="Y42">
         <v>231.35000000000002</v>
       </c>
-      <c r="J42">
+      <c r="Z42">
         <v>238.22</v>
       </c>
-      <c r="K42">
+      <c r="AA42">
         <v>229.95000000000002</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>232.77699999999996</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>44.882537841796875</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1386</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>246.34100000000004</v>
+      </c>
+      <c r="E43">
+        <f>A43*$B$76/1024/1024</f>
+        <v>45.97723388671875</v>
+      </c>
+      <c r="R43">
         <v>248.35999999999999</v>
       </c>
-      <c r="C43">
+      <c r="S43">
         <v>240.39999999999998</v>
       </c>
-      <c r="D43">
+      <c r="T43">
         <v>244.14000000000001</v>
       </c>
-      <c r="E43">
+      <c r="U43">
         <v>252.26</v>
       </c>
-      <c r="F43">
+      <c r="V43">
         <v>245.55</v>
       </c>
-      <c r="G43">
+      <c r="W43">
         <v>246.95</v>
       </c>
-      <c r="H43">
+      <c r="X43">
         <v>247.88</v>
       </c>
-      <c r="I43">
+      <c r="Y43">
         <v>242.42000000000002</v>
       </c>
-      <c r="J43">
+      <c r="Z43">
         <v>246.32000000000002</v>
       </c>
-      <c r="K43">
+      <c r="AA43">
         <v>249.13</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>246.34100000000004</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="1"/>
-        <v>45.97723388671875</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1419</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>256.27499999999998</v>
+      </c>
+      <c r="E44">
+        <f>A44*$B$76/1024/1024</f>
+        <v>47.071929931640625</v>
+      </c>
+      <c r="R44">
         <v>258.49</v>
       </c>
-      <c r="C44">
+      <c r="S44">
         <v>253.96999999999997</v>
       </c>
-      <c r="D44">
+      <c r="T44">
         <v>258.8</v>
       </c>
-      <c r="E44">
+      <c r="U44">
         <v>251</v>
       </c>
-      <c r="F44">
+      <c r="V44">
         <v>257.87</v>
       </c>
-      <c r="G44">
+      <c r="W44">
         <v>261.14</v>
       </c>
-      <c r="H44">
+      <c r="X44">
         <v>253.81</v>
       </c>
-      <c r="I44">
+      <c r="Y44">
         <v>250.21999999999997</v>
       </c>
-      <c r="J44">
+      <c r="Z44">
         <v>260.99</v>
       </c>
-      <c r="K44">
+      <c r="AA44">
         <v>256.46000000000004</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>256.27499999999998</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>47.071929931640625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1452</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>273.5</v>
+      </c>
+      <c r="E45">
+        <f>A45*$B$76/1024/1024</f>
+        <v>48.1666259765625</v>
+      </c>
+      <c r="R45">
         <v>270.35000000000002</v>
       </c>
-      <c r="C45">
+      <c r="S45">
         <v>272.69</v>
       </c>
-      <c r="D45">
+      <c r="T45">
         <v>275.02999999999997</v>
       </c>
-      <c r="E45">
+      <c r="U45">
         <v>274.87</v>
       </c>
-      <c r="F45">
+      <c r="V45">
         <v>273.77999999999997</v>
       </c>
-      <c r="G45">
+      <c r="W45">
         <v>273.15999999999997</v>
       </c>
-      <c r="H45">
+      <c r="X45">
         <v>274.25</v>
       </c>
-      <c r="I45">
+      <c r="Y45">
         <v>273.94</v>
       </c>
-      <c r="J45">
+      <c r="Z45">
         <v>270.19</v>
       </c>
-      <c r="K45">
+      <c r="AA45">
         <v>276.74</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>273.5</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="1"/>
-        <v>48.1666259765625</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1485</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>268.46000000000004</v>
+      </c>
+      <c r="E46">
+        <f>A46*$B$76/1024/1024</f>
+        <v>49.261322021484375</v>
+      </c>
+      <c r="R46">
         <v>265.36</v>
       </c>
-      <c r="C46">
+      <c r="S46">
         <v>272.22000000000003</v>
       </c>
-      <c r="D46">
+      <c r="T46">
         <v>264.26</v>
       </c>
-      <c r="E46">
+      <c r="U46">
         <v>266.14</v>
       </c>
-      <c r="F46">
+      <c r="V46">
         <v>264.26</v>
       </c>
-      <c r="G46">
+      <c r="W46">
         <v>269.72000000000003</v>
       </c>
-      <c r="H46">
+      <c r="X46">
         <v>268.79000000000002</v>
       </c>
-      <c r="I46">
+      <c r="Y46">
         <v>270.97000000000003</v>
       </c>
-      <c r="J46">
+      <c r="Z46">
         <v>268.01</v>
       </c>
-      <c r="K46">
+      <c r="AA46">
         <v>274.87</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>268.46000000000004</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>49.261322021484375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1518</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>296.25999999999993</v>
+      </c>
+      <c r="E47">
+        <f>A47*$B$76/1024/1024</f>
+        <v>50.35601806640625</v>
+      </c>
+      <c r="R47">
         <v>293.12</v>
       </c>
-      <c r="C47">
+      <c r="S47">
         <v>298.43</v>
       </c>
-      <c r="D47">
+      <c r="T47">
         <v>297.18</v>
       </c>
-      <c r="E47">
+      <c r="U47">
         <v>297.64999999999998</v>
       </c>
-      <c r="F47">
+      <c r="V47">
         <v>297.34000000000003</v>
       </c>
-      <c r="G47">
+      <c r="W47">
         <v>295.62</v>
       </c>
-      <c r="H47">
+      <c r="X47">
         <v>297.49</v>
       </c>
-      <c r="I47">
+      <c r="Y47">
         <v>297.49</v>
       </c>
-      <c r="J47">
+      <c r="Z47">
         <v>294.52999999999997</v>
       </c>
-      <c r="K47">
+      <c r="AA47">
         <v>293.75</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>296.25999999999993</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>50.35601806640625</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1551</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>304.48099999999999</v>
+      </c>
+      <c r="E48">
+        <f>A48*$B$76/1024/1024</f>
+        <v>51.450714111328125</v>
+      </c>
+      <c r="R48">
         <v>303.11</v>
       </c>
-      <c r="C48">
+      <c r="S48">
         <v>308.72000000000003</v>
       </c>
-      <c r="D48">
+      <c r="T48">
         <v>307.16000000000003</v>
       </c>
-      <c r="E48">
+      <c r="U48">
         <v>306.38</v>
       </c>
-      <c r="F48">
+      <c r="V48">
         <v>305.29000000000002</v>
       </c>
-      <c r="G48">
+      <c r="W48">
         <v>305.59999999999997</v>
       </c>
-      <c r="H48">
+      <c r="X48">
         <v>301.55</v>
       </c>
-      <c r="I48">
+      <c r="Y48">
         <v>306.54000000000002</v>
       </c>
-      <c r="J48">
+      <c r="Z48">
         <v>300.62</v>
       </c>
-      <c r="K48">
+      <c r="AA48">
         <v>299.84000000000003</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>304.48099999999999</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>51.450714111328125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1584</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>328.75600000000003</v>
+      </c>
+      <c r="E49">
+        <f>A49*$B$76/1024/1024</f>
+        <v>52.54541015625</v>
+      </c>
+      <c r="R49">
         <v>324.95</v>
       </c>
-      <c r="C49">
+      <c r="S49">
         <v>330.72</v>
       </c>
-      <c r="D49">
+      <c r="T49">
         <v>335.55999999999995</v>
       </c>
-      <c r="E49">
+      <c r="U49">
         <v>328.53999999999996</v>
       </c>
-      <c r="F49">
+      <c r="V49">
         <v>329.63</v>
       </c>
-      <c r="G49">
+      <c r="W49">
         <v>326.34999999999997</v>
       </c>
-      <c r="H49">
+      <c r="X49">
         <v>331.34999999999997</v>
       </c>
-      <c r="I49">
+      <c r="Y49">
         <v>325.57000000000005</v>
       </c>
-      <c r="J49">
+      <c r="Z49">
         <v>325.42</v>
       </c>
-      <c r="K49">
+      <c r="AA49">
         <v>329.47</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>328.75600000000003</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="1"/>
-        <v>52.54541015625</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1617</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>341.89</v>
+      </c>
+      <c r="E50">
+        <f>A50*$B$76/1024/1024</f>
+        <v>53.640106201171875</v>
+      </c>
+      <c r="R50">
         <v>339.14</v>
       </c>
-      <c r="C50">
+      <c r="S50">
         <v>341.02</v>
       </c>
-      <c r="D50">
+      <c r="T50">
         <v>346.79</v>
       </c>
-      <c r="E50">
+      <c r="U50">
         <v>342.73</v>
       </c>
-      <c r="F50">
+      <c r="V50">
         <v>338.21</v>
       </c>
-      <c r="G50">
+      <c r="W50">
         <v>350.53</v>
       </c>
-      <c r="H50">
+      <c r="X50">
         <v>334</v>
       </c>
-      <c r="I50">
+      <c r="Y50">
         <v>342.26</v>
       </c>
-      <c r="J50">
+      <c r="Z50">
         <v>344.45</v>
       </c>
-      <c r="K50">
+      <c r="AA50">
         <v>339.77</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>341.89</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="1"/>
-        <v>53.640106201171875</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1650</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>383.59</v>
+      </c>
+      <c r="E51">
+        <f>A51*$B$76/1024/1024</f>
+        <v>54.73480224609375</v>
+      </c>
+      <c r="R51">
         <v>376.74</v>
       </c>
-      <c r="C51">
+      <c r="S51">
         <v>381.89</v>
       </c>
-      <c r="D51">
+      <c r="T51">
         <v>381.89</v>
       </c>
-      <c r="E51">
+      <c r="U51">
         <v>391.71999999999997</v>
       </c>
-      <c r="F51">
+      <c r="V51">
         <v>379.24</v>
       </c>
-      <c r="G51">
+      <c r="W51">
         <v>390.31</v>
       </c>
-      <c r="H51">
+      <c r="X51">
         <v>389.69</v>
       </c>
-      <c r="I51">
+      <c r="Y51">
         <v>380.79999999999995</v>
       </c>
-      <c r="J51">
+      <c r="Z51">
         <v>392.96</v>
       </c>
-      <c r="K51">
+      <c r="AA51">
         <v>370.66</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="0"/>
-        <v>383.59</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="1"/>
-        <v>54.73480224609375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1683</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>390.31299999999999</v>
+      </c>
+      <c r="E52">
+        <f>A52*$B$76/1024/1024</f>
+        <v>55.829498291015625</v>
+      </c>
+      <c r="R52">
         <v>394.21</v>
       </c>
-      <c r="C52">
+      <c r="S52">
         <v>397.49</v>
       </c>
-      <c r="D52">
+      <c r="T52">
         <v>384.7</v>
       </c>
-      <c r="E52">
+      <c r="U52">
         <v>387.35</v>
       </c>
-      <c r="F52">
+      <c r="V52">
         <v>400.76</v>
       </c>
-      <c r="G52">
+      <c r="W52">
         <v>389.38</v>
       </c>
-      <c r="H52">
+      <c r="X52">
         <v>385.31999999999994</v>
       </c>
-      <c r="I52">
+      <c r="Y52">
         <v>390.15999999999997</v>
       </c>
-      <c r="J52">
+      <c r="Z52">
         <v>381.58000000000004</v>
       </c>
-      <c r="K52">
+      <c r="AA52">
         <v>392.18000000000006</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="0"/>
-        <v>390.31299999999999</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="1"/>
-        <v>55.829498291015625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1716</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>395.11700000000008</v>
+      </c>
+      <c r="E53">
+        <f>A53*$B$76/1024/1024</f>
+        <v>56.9241943359375</v>
+      </c>
+      <c r="R53">
         <v>399.97999999999996</v>
       </c>
-      <c r="C53">
+      <c r="S53">
         <v>395.46</v>
       </c>
-      <c r="D53">
+      <c r="T53">
         <v>395.62</v>
       </c>
-      <c r="E53">
+      <c r="U53">
         <v>396.24</v>
       </c>
-      <c r="F53">
+      <c r="V53">
         <v>397.64000000000004</v>
       </c>
-      <c r="G53">
+      <c r="W53">
         <v>392.65</v>
       </c>
-      <c r="H53">
+      <c r="X53">
         <v>389.38</v>
       </c>
-      <c r="I53">
+      <c r="Y53">
         <v>395.15</v>
       </c>
-      <c r="J53">
+      <c r="Z53">
         <v>394.84000000000003</v>
       </c>
-      <c r="K53">
+      <c r="AA53">
         <v>394.21</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="0"/>
-        <v>395.11700000000008</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="1"/>
-        <v>56.9241943359375</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1749</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>436.78800000000001</v>
+      </c>
+      <c r="E54">
+        <f>A54*$B$76/1024/1024</f>
+        <v>58.018890380859375</v>
+      </c>
+      <c r="R54">
         <v>451.65</v>
       </c>
-      <c r="C54">
+      <c r="S54">
         <v>433.54999999999995</v>
       </c>
-      <c r="D54">
+      <c r="T54">
         <v>441.82000000000005</v>
       </c>
-      <c r="E54">
+      <c r="U54">
         <v>434.49</v>
       </c>
-      <c r="F54">
+      <c r="V54">
         <v>443.84000000000003</v>
       </c>
-      <c r="G54">
+      <c r="W54">
         <v>437.12</v>
       </c>
-      <c r="H54">
+      <c r="X54">
         <v>432.28999999999996</v>
       </c>
-      <c r="I54">
+      <c r="Y54">
         <v>430.73</v>
       </c>
-      <c r="J54">
+      <c r="Z54">
         <v>426.51000000000005</v>
       </c>
-      <c r="K54">
+      <c r="AA54">
         <v>435.88</v>
       </c>
-      <c r="L54">
-        <f t="shared" si="0"/>
-        <v>436.78800000000001</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="1"/>
-        <v>58.018890380859375</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1782</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>487.471</v>
+      </c>
+      <c r="E55">
+        <f>A55*$B$76/1024/1024</f>
+        <v>59.11358642578125</v>
+      </c>
+      <c r="R55">
         <v>486.40999999999997</v>
       </c>
-      <c r="C55">
+      <c r="S55">
         <v>483.76</v>
       </c>
-      <c r="D55">
+      <c r="T55">
         <v>486.71999999999997</v>
       </c>
-      <c r="E55">
+      <c r="U55">
         <v>487.19</v>
       </c>
-      <c r="F55">
+      <c r="V55">
         <v>487.04</v>
       </c>
-      <c r="G55">
+      <c r="W55">
         <v>496.55</v>
       </c>
-      <c r="H55">
+      <c r="X55">
         <v>490</v>
       </c>
-      <c r="I55">
+      <c r="Y55">
         <v>477.67</v>
       </c>
-      <c r="J55">
+      <c r="Z55">
         <v>484.69</v>
       </c>
-      <c r="K55">
+      <c r="AA55">
         <v>494.68000000000006</v>
       </c>
-      <c r="L55">
-        <f t="shared" si="0"/>
-        <v>487.471</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="1"/>
-        <v>59.11358642578125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1815</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>476.83000000000004</v>
+      </c>
+      <c r="E56">
+        <f>A56*$B$76/1024/1024</f>
+        <v>60.208282470703125</v>
+      </c>
+      <c r="R56">
         <v>474.24</v>
       </c>
-      <c r="C56">
+      <c r="S56">
         <v>490.46</v>
       </c>
-      <c r="D56">
+      <c r="T56">
         <v>460.36</v>
       </c>
-      <c r="E56">
+      <c r="U56">
         <v>462.84999999999997</v>
       </c>
-      <c r="F56">
+      <c r="V56">
         <v>480.79</v>
       </c>
-      <c r="G56">
+      <c r="W56">
         <v>460.36</v>
       </c>
-      <c r="H56">
+      <c r="X56">
         <v>467.38</v>
       </c>
-      <c r="I56">
+      <c r="Y56">
         <v>496.08</v>
       </c>
-      <c r="J56">
+      <c r="Z56">
         <v>484.85</v>
       </c>
-      <c r="K56">
+      <c r="AA56">
         <v>490.93000000000006</v>
       </c>
-      <c r="L56">
-        <f t="shared" si="0"/>
-        <v>476.83000000000004</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="1"/>
-        <v>60.208282470703125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1848</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>485.89299999999992</v>
+      </c>
+      <c r="E57">
+        <f>A57*$B$76/1024/1024</f>
+        <v>61.302978515625</v>
+      </c>
+      <c r="R57">
         <v>487.65999999999997</v>
       </c>
-      <c r="C57">
+      <c r="S57">
         <v>480.17</v>
       </c>
-      <c r="D57">
+      <c r="T57">
         <v>483.44</v>
       </c>
-      <c r="E57">
+      <c r="U57">
         <v>486.88</v>
       </c>
-      <c r="F57">
+      <c r="V57">
         <v>484.21999999999997</v>
       </c>
-      <c r="G57">
+      <c r="W57">
         <v>482.35</v>
       </c>
-      <c r="H57">
+      <c r="X57">
         <v>484.21999999999997</v>
       </c>
-      <c r="I57">
+      <c r="Y57">
         <v>490.31</v>
       </c>
-      <c r="J57">
+      <c r="Z57">
         <v>489.21999999999997</v>
       </c>
-      <c r="K57">
+      <c r="AA57">
         <v>490.46</v>
       </c>
-      <c r="L57">
-        <f t="shared" si="0"/>
-        <v>485.89299999999992</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="1"/>
-        <v>61.302978515625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1881</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>537.22299999999996</v>
+      </c>
+      <c r="E58">
+        <f>A58*$B$76/1024/1024</f>
+        <v>62.397674560546875</v>
+      </c>
+      <c r="R58">
         <v>555.66999999999996</v>
       </c>
-      <c r="C58">
+      <c r="S58">
         <v>538.51</v>
       </c>
-      <c r="D58">
+      <c r="T58">
         <v>530.4</v>
       </c>
-      <c r="E58">
+      <c r="U58">
         <v>528.53</v>
       </c>
-      <c r="F58">
+      <c r="V58">
         <v>499.66999999999996</v>
       </c>
-      <c r="G58">
+      <c r="W58">
         <v>564.72</v>
       </c>
-      <c r="H58">
+      <c r="X58">
         <v>552.86</v>
       </c>
-      <c r="I58">
+      <c r="Y58">
         <v>507.95000000000005</v>
       </c>
-      <c r="J58">
+      <c r="Z58">
         <v>544.15</v>
       </c>
-      <c r="K58">
+      <c r="AA58">
         <v>549.77</v>
       </c>
-      <c r="L58">
-        <f t="shared" si="0"/>
-        <v>537.22299999999996</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="1"/>
-        <v>62.397674560546875</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1914</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>543.78600000000006</v>
+      </c>
+      <c r="E59">
+        <f>A59*$B$76/1024/1024</f>
+        <v>63.49237060546875</v>
+      </c>
+      <c r="R59">
         <v>536.64</v>
       </c>
-      <c r="C59">
+      <c r="S59">
         <v>545.69000000000005</v>
       </c>
-      <c r="D59">
+      <c r="T59">
         <v>544.44000000000005</v>
       </c>
-      <c r="E59">
+      <c r="U59">
         <v>544.6</v>
       </c>
-      <c r="F59">
+      <c r="V59">
         <v>545.22</v>
       </c>
-      <c r="G59">
+      <c r="W59">
         <v>540.39</v>
       </c>
-      <c r="H59">
+      <c r="X59">
         <v>554.57999999999993</v>
       </c>
-      <c r="I59">
+      <c r="Y59">
         <v>538.66999999999996</v>
       </c>
-      <c r="J59">
+      <c r="Z59">
         <v>541.94000000000005</v>
       </c>
-      <c r="K59">
+      <c r="AA59">
         <v>545.69000000000005</v>
       </c>
-      <c r="L59">
-        <f t="shared" si="0"/>
-        <v>543.78600000000006</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="1"/>
-        <v>63.49237060546875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1947</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>564.42499999999995</v>
+      </c>
+      <c r="E60">
+        <f>A60*$B$76/1024/1024</f>
+        <v>64.587066650390625</v>
+      </c>
+      <c r="R60">
         <v>585.47</v>
       </c>
-      <c r="C60">
+      <c r="S60">
         <v>565.66000000000008</v>
       </c>
-      <c r="D60">
+      <c r="T60">
         <v>564.09999999999991</v>
       </c>
-      <c r="E60">
+      <c r="U60">
         <v>565.81000000000006</v>
       </c>
-      <c r="F60">
+      <c r="V60">
         <v>558.32000000000005</v>
       </c>
-      <c r="G60">
+      <c r="W60">
         <v>561.29</v>
       </c>
-      <c r="H60">
+      <c r="X60">
         <v>561.29</v>
       </c>
-      <c r="I60">
+      <c r="Y60">
         <v>562.38</v>
       </c>
-      <c r="J60">
+      <c r="Z60">
         <v>561.29</v>
       </c>
-      <c r="K60">
+      <c r="AA60">
         <v>558.64</v>
       </c>
-      <c r="L60">
-        <f t="shared" si="0"/>
-        <v>564.42499999999995</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="1"/>
-        <v>64.587066650390625</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1980</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>608.72700000000009</v>
+      </c>
+      <c r="E61">
+        <f>A61*$B$76/1024/1024</f>
+        <v>65.6817626953125</v>
+      </c>
+      <c r="R61">
         <v>612.29999999999995</v>
       </c>
-      <c r="C61">
+      <c r="S61">
         <v>603.72</v>
       </c>
-      <c r="D61">
+      <c r="T61">
         <v>597.16999999999996</v>
       </c>
-      <c r="E61">
+      <c r="U61">
         <v>610.12</v>
       </c>
-      <c r="F61">
+      <c r="V61">
         <v>604.81000000000006</v>
       </c>
-      <c r="G61">
+      <c r="W61">
         <v>610.58000000000004</v>
       </c>
-      <c r="H61">
+      <c r="X61">
         <v>628.05999999999995</v>
       </c>
-      <c r="I61">
+      <c r="Y61">
         <v>609.02</v>
       </c>
-      <c r="J61">
+      <c r="Z61">
         <v>604.33999999999992</v>
       </c>
-      <c r="K61">
+      <c r="AA61">
         <v>607.15000000000009</v>
       </c>
-      <c r="L61">
-        <f t="shared" si="0"/>
-        <v>608.72700000000009</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="1"/>
-        <v>65.6817626953125</v>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T70" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <f>33*8 + 69</f>
+        <v>333</v>
+      </c>
+      <c r="I71">
+        <f>H71*G65</f>
+        <v>2664</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71">
+        <f>34*4</f>
+        <v>136</v>
+      </c>
+      <c r="T71">
+        <f>S71*G66</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72">
+        <f>33*1</f>
+        <v>33</v>
+      </c>
+      <c r="I72">
+        <f>H72*G66</f>
+        <v>66</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>12</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72">
+        <f>34*6 + 635*200</f>
+        <v>127204</v>
+      </c>
+      <c r="T72">
+        <f>S72*G65</f>
+        <v>1017632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73">
+        <f>SUM(I71:I72)</f>
+        <v>2730</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N73" t="s">
+        <v>13</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S73">
+        <f>34*7 + 635*200</f>
+        <v>127238</v>
+      </c>
+      <c r="T73">
+        <f>S73*G67</f>
+        <v>127238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T74">
+        <f>SUM(T71:T73)</f>
+        <v>1145142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75">
+        <f>I73+T74</f>
+        <v>1147872</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75">
+        <f>114892*1024</f>
+        <v>117649408</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75">
+        <f>8*1024*1024</f>
+        <v>8388608</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76">
+        <f>B75/33</f>
+        <v>34784</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <f>E75/3300</f>
+        <v>35651.335757575755</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <f>K75/B76</f>
+        <v>241.16283348666053</v>
       </c>
     </row>
   </sheetData>
@@ -5320,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -5328,75 +5749,75 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AB1" t="s">
         <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B2" t="e">
         <f>AVERAGE(H2:Q2)</f>
@@ -5407,12 +5828,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
@@ -5423,7 +5844,7 @@
         <v>713.4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>31717</v>
@@ -5488,7 +5909,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B4" t="e">
         <f t="shared" si="0"/>
@@ -5499,12 +5920,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B5" t="e">
         <f t="shared" si="0"/>
@@ -5515,12 +5936,12 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B6" t="e">
         <f>AVERAGE(H6:Q6)</f>
@@ -5548,33 +5969,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
@@ -281,7 +281,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1161,11 +1160,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269151784"/>
-        <c:axId val="269151392"/>
+        <c:axId val="213756752"/>
+        <c:axId val="213775464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269151784"/>
+        <c:axId val="213756752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1213,7 +1212,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1280,13 +1278,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269151392"/>
+        <c:crossAx val="213775464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269151392"/>
+        <c:axId val="213775464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1404,7 +1401,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269151784"/>
+        <c:crossAx val="213756752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2430,7 @@
         <v>0.73199999999999998</v>
       </c>
       <c r="E2">
-        <f>A2*$B$76/1024/1024</f>
+        <f t="shared" ref="E2:E33" si="0">A2*$B$76/1024/1024</f>
         <v>1.094696044921875</v>
       </c>
       <c r="G2">
@@ -2502,15 +2499,15 @@
         <v>66</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B61" si="0">AVERAGE(G3:P3)</f>
+        <f t="shared" ref="B3:B61" si="1">AVERAGE(G3:P3)</f>
         <v>42.652999999999999</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C61" si="1">AVERAGE(R3:AA3)</f>
+        <f t="shared" ref="C3:C61" si="2">AVERAGE(R3:AA3)</f>
         <v>1.7189999999999994</v>
       </c>
       <c r="E3">
-        <f>A3*$B$76/1024/1024</f>
+        <f t="shared" si="0"/>
         <v>2.18939208984375</v>
       </c>
       <c r="G3">
@@ -2579,15 +2576,15 @@
         <v>99</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>77.402999999999992</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>2.8380000000000005</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>77.402999999999992</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>2.8380000000000005</v>
-      </c>
-      <c r="E4">
-        <f>A4*$B$76/1024/1024</f>
         <v>3.284088134765625</v>
       </c>
       <c r="G4">
@@ -2656,15 +2653,15 @@
         <v>132</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>114.68600000000001</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>4.6160000000000014</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>114.68600000000001</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>4.6160000000000014</v>
-      </c>
-      <c r="E5">
-        <f>A5*$B$76/1024/1024</f>
         <v>4.3787841796875</v>
       </c>
       <c r="G5">
@@ -2733,15 +2730,15 @@
         <v>165</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>146.36799999999999</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>7.2849999999999993</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>146.36799999999999</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>7.2849999999999993</v>
-      </c>
-      <c r="E6">
-        <f>A6*$B$76/1024/1024</f>
         <v>5.473480224609375</v>
       </c>
       <c r="G6">
@@ -2810,15 +2807,15 @@
         <v>198</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>186.39600000000002</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>11.095000000000001</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>186.39600000000002</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>11.095000000000001</v>
-      </c>
-      <c r="E7">
-        <f>A7*$B$76/1024/1024</f>
         <v>6.56817626953125</v>
       </c>
       <c r="G7">
@@ -2887,15 +2884,15 @@
         <v>231</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>224.20500000000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>16.411999999999999</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>224.20500000000001</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>16.411999999999999</v>
-      </c>
-      <c r="E8">
-        <f>A8*$B$76/1024/1024</f>
         <v>7.662872314453125</v>
       </c>
       <c r="G8">
@@ -2964,15 +2961,15 @@
         <v>264</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>258.11800000000005</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>23.025000000000002</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>258.11800000000005</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>23.025000000000002</v>
-      </c>
-      <c r="E9">
-        <f>A9*$B$76/1024/1024</f>
         <v>8.757568359375</v>
       </c>
       <c r="G9">
@@ -3041,15 +3038,15 @@
         <v>297</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>292.83600000000007</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>31.122999999999998</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>292.83600000000007</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>31.122999999999998</v>
-      </c>
-      <c r="E10">
-        <f>A10*$B$76/1024/1024</f>
         <v>9.852264404296875</v>
       </c>
       <c r="G10">
@@ -3118,15 +3115,15 @@
         <v>330</v>
       </c>
       <c r="B11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>38.424999999999997</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>38.424999999999997</v>
-      </c>
-      <c r="E11">
-        <f>A11*$B$76/1024/1024</f>
         <v>10.94696044921875</v>
       </c>
       <c r="R11">
@@ -3165,15 +3162,15 @@
         <v>363</v>
       </c>
       <c r="B12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>45.940999999999995</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>45.940999999999995</v>
-      </c>
-      <c r="E12">
-        <f>A12*$B$76/1024/1024</f>
         <v>12.041656494140625</v>
       </c>
       <c r="R12">
@@ -3212,15 +3209,15 @@
         <v>396</v>
       </c>
       <c r="B13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>52.601999999999997</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>52.601999999999997</v>
-      </c>
-      <c r="E13">
-        <f>A13*$B$76/1024/1024</f>
         <v>13.1363525390625</v>
       </c>
       <c r="R13">
@@ -3259,15 +3256,15 @@
         <v>429</v>
       </c>
       <c r="B14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>59.35799999999999</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>59.35799999999999</v>
-      </c>
-      <c r="E14">
-        <f>A14*$B$76/1024/1024</f>
         <v>14.231048583984375</v>
       </c>
       <c r="R14">
@@ -3306,15 +3303,15 @@
         <v>462</v>
       </c>
       <c r="B15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>65.38000000000001</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>65.38000000000001</v>
-      </c>
-      <c r="E15">
-        <f>A15*$B$76/1024/1024</f>
         <v>15.32574462890625</v>
       </c>
       <c r="R15">
@@ -3353,15 +3350,15 @@
         <v>495</v>
       </c>
       <c r="B16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>71.759999999999991</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>71.759999999999991</v>
-      </c>
-      <c r="E16">
-        <f>A16*$B$76/1024/1024</f>
         <v>16.420440673828125</v>
       </c>
       <c r="R16">
@@ -3400,15 +3397,15 @@
         <v>528</v>
       </c>
       <c r="B17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>77.626000000000005</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>77.626000000000005</v>
-      </c>
-      <c r="E17">
-        <f>A17*$B$76/1024/1024</f>
         <v>17.51513671875</v>
       </c>
       <c r="R17">
@@ -3447,15 +3444,15 @@
         <v>561</v>
       </c>
       <c r="B18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>81.759</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>81.759</v>
-      </c>
-      <c r="E18">
-        <f>A18*$B$76/1024/1024</f>
         <v>18.609832763671875</v>
       </c>
       <c r="R18">
@@ -3494,15 +3491,15 @@
         <v>594</v>
       </c>
       <c r="B19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>84.864000000000019</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>84.864000000000019</v>
-      </c>
-      <c r="E19">
-        <f>A19*$B$76/1024/1024</f>
         <v>19.70452880859375</v>
       </c>
       <c r="R19">
@@ -3541,15 +3538,15 @@
         <v>627</v>
       </c>
       <c r="B20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>91.266999999999996</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>91.266999999999996</v>
-      </c>
-      <c r="E20">
-        <f>A20*$B$76/1024/1024</f>
         <v>20.799224853515625</v>
       </c>
       <c r="R20">
@@ -3588,15 +3585,15 @@
         <v>660</v>
       </c>
       <c r="B21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>96.097999999999999</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>96.097999999999999</v>
-      </c>
-      <c r="E21">
-        <f>A21*$B$76/1024/1024</f>
         <v>21.8939208984375</v>
       </c>
       <c r="R21">
@@ -3635,15 +3632,15 @@
         <v>693</v>
       </c>
       <c r="B22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>100.40200000000002</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>100.40200000000002</v>
-      </c>
-      <c r="E22">
-        <f>A22*$B$76/1024/1024</f>
         <v>22.988616943359375</v>
       </c>
       <c r="R22">
@@ -3682,15 +3679,15 @@
         <v>726</v>
       </c>
       <c r="B23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>104.66100000000002</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>104.66100000000002</v>
-      </c>
-      <c r="E23">
-        <f>A23*$B$76/1024/1024</f>
         <v>24.08331298828125</v>
       </c>
       <c r="R23">
@@ -3729,15 +3726,15 @@
         <v>759</v>
       </c>
       <c r="B24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>112.742</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>112.742</v>
-      </c>
-      <c r="E24">
-        <f>A24*$B$76/1024/1024</f>
         <v>25.178009033203125</v>
       </c>
       <c r="R24">
@@ -3776,15 +3773,15 @@
         <v>792</v>
       </c>
       <c r="B25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>118.29400000000001</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>118.29400000000001</v>
-      </c>
-      <c r="E25">
-        <f>A25*$B$76/1024/1024</f>
         <v>26.272705078125</v>
       </c>
       <c r="R25">
@@ -3823,15 +3820,15 @@
         <v>825</v>
       </c>
       <c r="B26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>121.571</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>121.571</v>
-      </c>
-      <c r="E26">
-        <f>A26*$B$76/1024/1024</f>
         <v>27.367401123046875</v>
       </c>
       <c r="R26">
@@ -3870,15 +3867,15 @@
         <v>858</v>
       </c>
       <c r="B27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>127.53000000000002</v>
+      </c>
+      <c r="E27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>127.53000000000002</v>
-      </c>
-      <c r="E27">
-        <f>A27*$B$76/1024/1024</f>
         <v>28.46209716796875</v>
       </c>
       <c r="R27">
@@ -3917,15 +3914,15 @@
         <v>891</v>
       </c>
       <c r="B28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>131.96099999999998</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>131.96099999999998</v>
-      </c>
-      <c r="E28">
-        <f>A28*$B$76/1024/1024</f>
         <v>29.556793212890625</v>
       </c>
       <c r="R28">
@@ -3964,15 +3961,15 @@
         <v>924</v>
       </c>
       <c r="B29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>139.089</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>139.089</v>
-      </c>
-      <c r="E29">
-        <f>A29*$B$76/1024/1024</f>
         <v>30.6514892578125</v>
       </c>
       <c r="R29">
@@ -4011,15 +4008,15 @@
         <v>957</v>
       </c>
       <c r="B30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>146.16999999999999</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>146.16999999999999</v>
-      </c>
-      <c r="E30">
-        <f>A30*$B$76/1024/1024</f>
         <v>31.746185302734375</v>
       </c>
       <c r="R30">
@@ -4058,15 +4055,15 @@
         <v>990</v>
       </c>
       <c r="B31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>148.38600000000002</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>148.38600000000002</v>
-      </c>
-      <c r="E31">
-        <f>A31*$B$76/1024/1024</f>
         <v>32.84088134765625</v>
       </c>
       <c r="R31">
@@ -4105,15 +4102,15 @@
         <v>1023</v>
       </c>
       <c r="B32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>165.96800000000002</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>165.96800000000002</v>
-      </c>
-      <c r="E32">
-        <f>A32*$B$76/1024/1024</f>
         <v>33.935577392578125</v>
       </c>
       <c r="R32">
@@ -4152,15 +4149,15 @@
         <v>1056</v>
       </c>
       <c r="B33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>166.64600000000002</v>
+      </c>
+      <c r="E33">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>166.64600000000002</v>
-      </c>
-      <c r="E33">
-        <f>A33*$B$76/1024/1024</f>
         <v>35.0302734375</v>
       </c>
       <c r="R33">
@@ -4199,15 +4196,15 @@
         <v>1089</v>
       </c>
       <c r="B34" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170.52499999999998</v>
       </c>
       <c r="E34">
-        <f>A34*$B$76/1024/1024</f>
+        <f t="shared" ref="E34:E61" si="3">A34*$B$76/1024/1024</f>
         <v>36.124969482421875</v>
       </c>
       <c r="R34">
@@ -4246,15 +4243,15 @@
         <v>1122</v>
       </c>
       <c r="B35" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>172.89400000000001</v>
       </c>
       <c r="E35">
-        <f>A35*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>37.21966552734375</v>
       </c>
       <c r="R35">
@@ -4293,15 +4290,15 @@
         <v>1155</v>
       </c>
       <c r="B36" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>184.298</v>
       </c>
       <c r="E36">
-        <f>A36*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>38.314361572265625</v>
       </c>
       <c r="R36">
@@ -4340,15 +4337,15 @@
         <v>1188</v>
       </c>
       <c r="B37" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182.97199999999998</v>
       </c>
       <c r="E37">
-        <f>A37*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>39.4090576171875</v>
       </c>
       <c r="R37">
@@ -4387,15 +4384,15 @@
         <v>1221</v>
       </c>
       <c r="B38" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>194.17299999999997</v>
       </c>
       <c r="E38">
-        <f>A38*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>40.503753662109375</v>
       </c>
       <c r="R38">
@@ -4434,15 +4431,15 @@
         <v>1254</v>
       </c>
       <c r="B39" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206.45100000000002</v>
       </c>
       <c r="E39">
-        <f>A39*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>41.59844970703125</v>
       </c>
       <c r="R39">
@@ -4481,15 +4478,15 @@
         <v>1287</v>
       </c>
       <c r="B40" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>224.84299999999999</v>
       </c>
       <c r="E40">
-        <f>A40*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>42.693145751953125</v>
       </c>
       <c r="R40">
@@ -4528,15 +4525,15 @@
         <v>1320</v>
       </c>
       <c r="B41" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219.429</v>
       </c>
       <c r="E41">
-        <f>A41*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>43.787841796875</v>
       </c>
       <c r="R41">
@@ -4575,15 +4572,15 @@
         <v>1353</v>
       </c>
       <c r="B42" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232.77699999999996</v>
       </c>
       <c r="E42">
-        <f>A42*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>44.882537841796875</v>
       </c>
       <c r="R42">
@@ -4622,15 +4619,15 @@
         <v>1386</v>
       </c>
       <c r="B43" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>246.34100000000004</v>
       </c>
       <c r="E43">
-        <f>A43*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>45.97723388671875</v>
       </c>
       <c r="R43">
@@ -4669,15 +4666,15 @@
         <v>1419</v>
       </c>
       <c r="B44" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256.27499999999998</v>
       </c>
       <c r="E44">
-        <f>A44*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>47.071929931640625</v>
       </c>
       <c r="R44">
@@ -4716,15 +4713,15 @@
         <v>1452</v>
       </c>
       <c r="B45" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273.5</v>
       </c>
       <c r="E45">
-        <f>A45*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>48.1666259765625</v>
       </c>
       <c r="R45">
@@ -4763,15 +4760,15 @@
         <v>1485</v>
       </c>
       <c r="B46" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268.46000000000004</v>
       </c>
       <c r="E46">
-        <f>A46*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>49.261322021484375</v>
       </c>
       <c r="R46">
@@ -4810,15 +4807,15 @@
         <v>1518</v>
       </c>
       <c r="B47" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>296.25999999999993</v>
       </c>
       <c r="E47">
-        <f>A47*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>50.35601806640625</v>
       </c>
       <c r="R47">
@@ -4857,15 +4854,15 @@
         <v>1551</v>
       </c>
       <c r="B48" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>304.48099999999999</v>
       </c>
       <c r="E48">
-        <f>A48*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>51.450714111328125</v>
       </c>
       <c r="R48">
@@ -4904,15 +4901,15 @@
         <v>1584</v>
       </c>
       <c r="B49" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>328.75600000000003</v>
       </c>
       <c r="E49">
-        <f>A49*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>52.54541015625</v>
       </c>
       <c r="R49">
@@ -4951,15 +4948,15 @@
         <v>1617</v>
       </c>
       <c r="B50" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>341.89</v>
       </c>
       <c r="E50">
-        <f>A50*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>53.640106201171875</v>
       </c>
       <c r="R50">
@@ -4998,15 +4995,15 @@
         <v>1650</v>
       </c>
       <c r="B51" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>383.59</v>
       </c>
       <c r="E51">
-        <f>A51*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>54.73480224609375</v>
       </c>
       <c r="R51">
@@ -5045,15 +5042,15 @@
         <v>1683</v>
       </c>
       <c r="B52" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>390.31299999999999</v>
       </c>
       <c r="E52">
-        <f>A52*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>55.829498291015625</v>
       </c>
       <c r="R52">
@@ -5092,15 +5089,15 @@
         <v>1716</v>
       </c>
       <c r="B53" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>395.11700000000008</v>
       </c>
       <c r="E53">
-        <f>A53*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>56.9241943359375</v>
       </c>
       <c r="R53">
@@ -5139,15 +5136,15 @@
         <v>1749</v>
       </c>
       <c r="B54" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>436.78800000000001</v>
       </c>
       <c r="E54">
-        <f>A54*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>58.018890380859375</v>
       </c>
       <c r="R54">
@@ -5186,15 +5183,15 @@
         <v>1782</v>
       </c>
       <c r="B55" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>487.471</v>
       </c>
       <c r="E55">
-        <f>A55*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>59.11358642578125</v>
       </c>
       <c r="R55">
@@ -5233,15 +5230,15 @@
         <v>1815</v>
       </c>
       <c r="B56" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>476.83000000000004</v>
       </c>
       <c r="E56">
-        <f>A56*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>60.208282470703125</v>
       </c>
       <c r="R56">
@@ -5280,15 +5277,15 @@
         <v>1848</v>
       </c>
       <c r="B57" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>485.89299999999992</v>
       </c>
       <c r="E57">
-        <f>A57*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>61.302978515625</v>
       </c>
       <c r="R57">
@@ -5327,15 +5324,15 @@
         <v>1881</v>
       </c>
       <c r="B58" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>537.22299999999996</v>
       </c>
       <c r="E58">
-        <f>A58*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>62.397674560546875</v>
       </c>
       <c r="R58">
@@ -5374,15 +5371,15 @@
         <v>1914</v>
       </c>
       <c r="B59" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>543.78600000000006</v>
       </c>
       <c r="E59">
-        <f>A59*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>63.49237060546875</v>
       </c>
       <c r="R59">
@@ -5421,15 +5418,15 @@
         <v>1947</v>
       </c>
       <c r="B60" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>564.42499999999995</v>
       </c>
       <c r="E60">
-        <f>A60*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>64.587066650390625</v>
       </c>
       <c r="R60">
@@ -5468,15 +5465,15 @@
         <v>1980</v>
       </c>
       <c r="B61" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>608.72700000000009</v>
       </c>
       <c r="E61">
-        <f>A61*$B$76/1024/1024</f>
+        <f t="shared" si="3"/>
         <v>65.6817626953125</v>
       </c>
       <c r="R61">
@@ -5741,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5837,7 +5834,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
-        <v>31476.799999999999</v>
+        <v>14253.6</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C5" si="1">AVERAGE(S3:AB3)</f>
@@ -5847,34 +5844,34 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>31717</v>
+        <v>14418</v>
       </c>
       <c r="I3">
-        <v>31548</v>
+        <v>14271</v>
       </c>
       <c r="J3">
-        <v>31389</v>
+        <v>14266</v>
       </c>
       <c r="K3">
-        <v>31221</v>
+        <v>14235</v>
       </c>
       <c r="L3">
-        <v>31595</v>
+        <v>14279</v>
       </c>
       <c r="M3">
-        <v>31288</v>
+        <v>14219</v>
       </c>
       <c r="N3">
-        <v>31576</v>
+        <v>14260</v>
       </c>
       <c r="O3">
-        <v>31467</v>
+        <v>14205</v>
       </c>
       <c r="P3">
-        <v>31612</v>
+        <v>14201</v>
       </c>
       <c r="Q3">
-        <v>31355</v>
+        <v>14182</v>
       </c>
       <c r="S3">
         <v>749</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
@@ -281,6 +281,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -968,31 +969,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>16.788999999999998</c:v>
+                  <c:v>8.043000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.652999999999999</c:v>
+                  <c:v>20.091000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.402999999999992</c:v>
+                  <c:v>35.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>114.68600000000001</c:v>
+                  <c:v>50.319000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>146.36799999999999</c:v>
+                  <c:v>65.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>186.39600000000002</c:v>
+                  <c:v>83.053000000000011</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>224.20500000000001</c:v>
+                  <c:v>98.698000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>258.11800000000005</c:v>
+                  <c:v>112.28900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>292.83600000000007</c:v>
+                  <c:v>126.44799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1160,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213756752"/>
-        <c:axId val="213775464"/>
+        <c:axId val="289031360"/>
+        <c:axId val="371191704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213756752"/>
+        <c:axId val="289031360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1212,6 +1213,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1278,13 +1280,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213775464"/>
+        <c:crossAx val="371191704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213775464"/>
+        <c:axId val="371191704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,6 +1337,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1401,7 +1404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213756752"/>
+        <c:crossAx val="289031360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2330,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2426,7 @@
       </c>
       <c r="B2">
         <f>AVERAGE(G2:P2)</f>
-        <v>16.788999999999998</v>
+        <v>8.043000000000001</v>
       </c>
       <c r="C2">
         <f>AVERAGE(R2:AA2)</f>
@@ -2434,34 +2437,34 @@
         <v>1.094696044921875</v>
       </c>
       <c r="G2">
-        <v>17.66</v>
+        <v>8.07</v>
       </c>
       <c r="H2">
-        <v>16.690000000000001</v>
+        <v>8.98</v>
       </c>
       <c r="I2">
-        <v>16.7</v>
+        <v>8.129999999999999</v>
       </c>
       <c r="J2">
-        <v>16.690000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="K2">
-        <v>16.690000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="L2">
-        <v>16.7</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="M2">
-        <v>16.690000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="N2">
-        <v>16.690000000000001</v>
+        <v>7.9600000000000009</v>
       </c>
       <c r="O2">
-        <v>16.690000000000001</v>
+        <v>7.9700000000000006</v>
       </c>
       <c r="P2">
-        <v>16.690000000000001</v>
+        <v>7.9700000000000006</v>
       </c>
       <c r="R2">
         <v>0.78</v>
@@ -2500,7 +2503,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B61" si="1">AVERAGE(G3:P3)</f>
-        <v>42.652999999999999</v>
+        <v>20.091000000000001</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C61" si="2">AVERAGE(R3:AA3)</f>
@@ -2511,34 +2514,34 @@
         <v>2.18939208984375</v>
       </c>
       <c r="G3">
-        <v>43.25</v>
+        <v>21.14</v>
       </c>
       <c r="H3">
-        <v>42.59</v>
+        <v>19.970000000000002</v>
       </c>
       <c r="I3">
-        <v>42.430000000000007</v>
+        <v>19.990000000000002</v>
       </c>
       <c r="J3">
-        <v>42.58</v>
+        <v>19.96</v>
       </c>
       <c r="K3">
-        <v>42.430000000000007</v>
+        <v>19.970000000000002</v>
       </c>
       <c r="L3">
-        <v>42.74</v>
+        <v>20.13</v>
       </c>
       <c r="M3">
-        <v>42.74</v>
+        <v>19.990000000000002</v>
       </c>
       <c r="N3">
-        <v>42.9</v>
+        <v>19.970000000000002</v>
       </c>
       <c r="O3">
-        <v>42.59</v>
+        <v>19.970000000000002</v>
       </c>
       <c r="P3">
-        <v>42.28</v>
+        <v>19.82</v>
       </c>
       <c r="R3">
         <v>1.7199999999999998</v>
@@ -2577,7 +2580,7 @@
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
-        <v>77.402999999999992</v>
+        <v>35.335999999999999</v>
       </c>
       <c r="C4">
         <f t="shared" si="2"/>
@@ -2588,34 +2591,34 @@
         <v>3.284088134765625</v>
       </c>
       <c r="G4">
-        <v>78.099999999999994</v>
+        <v>36.29</v>
       </c>
       <c r="H4">
-        <v>77.22</v>
+        <v>35.26</v>
       </c>
       <c r="I4">
-        <v>77.37</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="J4">
-        <v>77.53</v>
+        <v>35.58</v>
       </c>
       <c r="K4">
-        <v>77.22</v>
+        <v>35.25</v>
       </c>
       <c r="L4">
-        <v>77.23</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="M4">
-        <v>77.38000000000001</v>
+        <v>35.28</v>
       </c>
       <c r="N4">
-        <v>77.38000000000001</v>
+        <v>35.099999999999994</v>
       </c>
       <c r="O4">
-        <v>77.53</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="P4">
-        <v>77.069999999999993</v>
+        <v>35.26</v>
       </c>
       <c r="R4">
         <v>2.8100000000000005</v>
@@ -2654,7 +2657,7 @@
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>114.68600000000001</v>
+        <v>50.319000000000003</v>
       </c>
       <c r="C5">
         <f t="shared" si="2"/>
@@ -2665,34 +2668,34 @@
         <v>4.3787841796875</v>
       </c>
       <c r="G5">
-        <v>114.78</v>
+        <v>50.72</v>
       </c>
       <c r="H5">
-        <v>114.5</v>
+        <v>50.099999999999994</v>
       </c>
       <c r="I5">
-        <v>114.51</v>
+        <v>50.09</v>
       </c>
       <c r="J5">
-        <v>114.66</v>
+        <v>50.26</v>
       </c>
       <c r="K5">
-        <v>115.28</v>
+        <v>50.27</v>
       </c>
       <c r="L5">
-        <v>114.35000000000001</v>
+        <v>50.23</v>
       </c>
       <c r="M5">
-        <v>115.58999999999999</v>
+        <v>50.42</v>
       </c>
       <c r="N5">
-        <v>114.5</v>
+        <v>50.410000000000004</v>
       </c>
       <c r="O5">
-        <v>114.5</v>
+        <v>50.24</v>
       </c>
       <c r="P5">
-        <v>114.19</v>
+        <v>50.45</v>
       </c>
       <c r="R5">
         <v>4.6800000000000006</v>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>146.36799999999999</v>
+        <v>65.372</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
@@ -2742,34 +2745,34 @@
         <v>5.473480224609375</v>
       </c>
       <c r="G6">
-        <v>147.18</v>
+        <v>65.37</v>
       </c>
       <c r="H6">
-        <v>146.02000000000001</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="I6">
-        <v>146.48999999999998</v>
+        <v>65.37</v>
       </c>
       <c r="J6">
-        <v>146.32999999999998</v>
+        <v>65.52</v>
       </c>
       <c r="K6">
-        <v>146.32999999999998</v>
+        <v>65.36</v>
       </c>
       <c r="L6">
-        <v>146.01000000000002</v>
+        <v>65.37</v>
       </c>
       <c r="M6">
-        <v>146.17000000000002</v>
+        <v>65.37</v>
       </c>
       <c r="N6">
-        <v>146.17000000000002</v>
+        <v>65.22999999999999</v>
       </c>
       <c r="O6">
-        <v>146.80000000000001</v>
+        <v>65.37</v>
       </c>
       <c r="P6">
-        <v>146.18</v>
+        <v>65.36</v>
       </c>
       <c r="R6">
         <v>7.18</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>186.39600000000002</v>
+        <v>83.053000000000011</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
@@ -2819,34 +2822,34 @@
         <v>6.56817626953125</v>
       </c>
       <c r="G7">
-        <v>187.10000000000002</v>
+        <v>82.929999999999993</v>
       </c>
       <c r="H7">
-        <v>186.26000000000002</v>
+        <v>83.179999999999993</v>
       </c>
       <c r="I7">
-        <v>185.79999999999998</v>
+        <v>83.149999999999991</v>
       </c>
       <c r="J7">
-        <v>186.11</v>
+        <v>82.72999999999999</v>
       </c>
       <c r="K7">
-        <v>186.26999999999998</v>
+        <v>83.149999999999991</v>
       </c>
       <c r="L7">
-        <v>186.58</v>
+        <v>83.17</v>
       </c>
       <c r="M7">
-        <v>186.42</v>
+        <v>83.02</v>
       </c>
       <c r="N7">
-        <v>185.96</v>
+        <v>83.01</v>
       </c>
       <c r="O7">
-        <v>186.73</v>
+        <v>83.190000000000012</v>
       </c>
       <c r="P7">
-        <v>186.73</v>
+        <v>83</v>
       </c>
       <c r="R7">
         <v>11.080000000000002</v>
@@ -2885,7 +2888,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>224.20500000000001</v>
+        <v>98.698000000000008</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
@@ -2896,34 +2899,34 @@
         <v>7.662872314453125</v>
       </c>
       <c r="G8">
-        <v>224.64</v>
+        <v>98.68</v>
       </c>
       <c r="H8">
-        <v>224.02</v>
+        <v>98.580000000000013</v>
       </c>
       <c r="I8">
-        <v>224.17000000000002</v>
+        <v>98.62</v>
       </c>
       <c r="J8">
-        <v>224.18</v>
+        <v>98.68</v>
       </c>
       <c r="K8">
-        <v>224.18</v>
+        <v>98.149999999999991</v>
       </c>
       <c r="L8">
-        <v>224.48000000000002</v>
+        <v>98.149999999999991</v>
       </c>
       <c r="M8">
-        <v>224.17000000000002</v>
+        <v>100.1</v>
       </c>
       <c r="N8">
-        <v>224.32999999999998</v>
+        <v>99.84</v>
       </c>
       <c r="O8">
-        <v>223.85999999999999</v>
+        <v>98.31</v>
       </c>
       <c r="P8">
-        <v>224.02</v>
+        <v>97.87</v>
       </c>
       <c r="R8">
         <v>16.54</v>
@@ -2962,7 +2965,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
-        <v>258.11800000000005</v>
+        <v>112.28900000000002</v>
       </c>
       <c r="C9">
         <f t="shared" si="2"/>
@@ -2973,34 +2976,34 @@
         <v>8.757568359375</v>
       </c>
       <c r="G9">
-        <v>258.02</v>
+        <v>112.32</v>
       </c>
       <c r="H9">
-        <v>257.71000000000004</v>
+        <v>112.34</v>
       </c>
       <c r="I9">
-        <v>259.43</v>
+        <v>112.2</v>
       </c>
       <c r="J9">
-        <v>258.03000000000003</v>
+        <v>112.68</v>
       </c>
       <c r="K9">
-        <v>257.87</v>
+        <v>112.16</v>
       </c>
       <c r="L9">
-        <v>257.71000000000004</v>
+        <v>112.12</v>
       </c>
       <c r="M9">
-        <v>257.71000000000004</v>
+        <v>112.30000000000001</v>
       </c>
       <c r="N9">
-        <v>258.18</v>
+        <v>112.14</v>
       </c>
       <c r="O9">
-        <v>258.03000000000003</v>
+        <v>112.27000000000001</v>
       </c>
       <c r="P9">
-        <v>258.49</v>
+        <v>112.36000000000001</v>
       </c>
       <c r="R9">
         <v>23.090000000000003</v>
@@ -3039,7 +3042,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>292.83600000000007</v>
+        <v>126.44799999999998</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
@@ -3050,34 +3053,34 @@
         <v>9.852264404296875</v>
       </c>
       <c r="G10">
-        <v>292.65999999999997</v>
+        <v>126.55</v>
       </c>
       <c r="H10">
-        <v>292.19</v>
+        <v>126.19999999999999</v>
       </c>
       <c r="I10">
-        <v>294.02</v>
+        <v>126.67999999999999</v>
       </c>
       <c r="J10">
-        <v>295.42</v>
+        <v>126.52</v>
       </c>
       <c r="K10">
-        <v>292.5</v>
+        <v>126.25</v>
       </c>
       <c r="L10">
-        <v>291.88</v>
+        <v>126.37</v>
       </c>
       <c r="M10">
-        <v>292.5</v>
+        <v>126.43</v>
       </c>
       <c r="N10">
-        <v>292.97000000000003</v>
+        <v>126.55</v>
       </c>
       <c r="O10">
-        <v>292.19</v>
+        <v>126.35999999999999</v>
       </c>
       <c r="P10">
-        <v>292.02999999999997</v>
+        <v>126.57</v>
       </c>
       <c r="R10">
         <v>31.200000000000003</v>
@@ -5738,7 +5741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>

--- a/results.xlsx
+++ b/results.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
     <sheet name="Simulation Time" sheetId="2" r:id="rId2"/>
-    <sheet name="Executable Size" sheetId="3" r:id="rId3"/>
+    <sheet name="Memory Usage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t># Cells</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Piha</t>
-  </si>
-  <si>
-    <t>Heart</t>
   </si>
   <si>
     <t>SL 1</t>
@@ -281,7 +278,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1161,11 +1157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="289031360"/>
-        <c:axId val="371191704"/>
+        <c:axId val="288222616"/>
+        <c:axId val="288763384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="289031360"/>
+        <c:axId val="288222616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1213,7 +1209,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1280,13 +1275,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371191704"/>
+        <c:crossAx val="288763384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371191704"/>
+        <c:axId val="288763384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,7 +1332,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1404,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="289031360"/>
+        <c:crossAx val="288222616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2333,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,67 +2351,67 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>44</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
@@ -5550,7 +5544,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>14</v>
@@ -5741,8 +5735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,69 +5749,69 @@
         <v>24</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>44</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="e">
         <f>AVERAGE(H2:Q2)</f>
@@ -5833,7 +5827,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
@@ -5909,7 +5903,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="e">
         <f t="shared" si="0"/>
@@ -5925,23 +5919,53 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5" t="e">
+      <c r="C5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>112.7</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
       </c>
+      <c r="S5">
+        <v>121</v>
+      </c>
+      <c r="T5">
+        <v>119</v>
+      </c>
+      <c r="U5">
+        <v>123</v>
+      </c>
+      <c r="V5">
+        <v>109</v>
+      </c>
+      <c r="W5">
+        <v>97</v>
+      </c>
+      <c r="X5">
+        <v>111</v>
+      </c>
+      <c r="Y5">
+        <v>112</v>
+      </c>
+      <c r="Z5">
+        <v>105</v>
+      </c>
+      <c r="AA5">
+        <v>112</v>
+      </c>
+      <c r="AB5">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="e">
         <f>AVERAGE(H6:Q6)</f>
@@ -5959,43 +5983,157 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="B2" t="e">
+        <f>AVERAGE(H2:Q2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>AVERAGE(S2:AB2)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="e">
+        <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C3" t="e">
+        <f t="shared" ref="C3:C5" si="1">AVERAGE(S3:AB3)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="E5" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="e">
+        <f>AVERAGE(H6:Q6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" t="e">
+        <f>AVERAGE(S6:AB6)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1157,11 +1157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="288222616"/>
-        <c:axId val="288763384"/>
+        <c:axId val="280104240"/>
+        <c:axId val="280123240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="288222616"/>
+        <c:axId val="280104240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1275,13 +1275,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288763384"/>
+        <c:crossAx val="280123240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="288763384"/>
+        <c:axId val="280123240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="288222616"/>
+        <c:crossAx val="280104240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5736,7 +5736,7 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5971,9 +5971,39 @@
         <f>AVERAGE(H6:Q6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6" t="e">
+      <c r="C6">
         <f>AVERAGE(S6:AB6)</f>
-        <v>#DIV/0!</v>
+        <v>206.9</v>
+      </c>
+      <c r="S6">
+        <v>214</v>
+      </c>
+      <c r="T6">
+        <v>213</v>
+      </c>
+      <c r="U6">
+        <v>210</v>
+      </c>
+      <c r="V6">
+        <v>211</v>
+      </c>
+      <c r="W6">
+        <v>199</v>
+      </c>
+      <c r="X6">
+        <v>199</v>
+      </c>
+      <c r="Y6">
+        <v>207</v>
+      </c>
+      <c r="Z6">
+        <v>200</v>
+      </c>
+      <c r="AA6">
+        <v>208</v>
+      </c>
+      <c r="AB6">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
   <si>
     <t># Cells</t>
   </si>
@@ -172,6 +172,72 @@
   </si>
   <si>
     <t>Memory Requirements for Piha</t>
+  </si>
+  <si>
+    <t>Piha (O2)</t>
+  </si>
+  <si>
+    <t>Piha (O0)</t>
+  </si>
+  <si>
+    <t>PH(2) 1</t>
+  </si>
+  <si>
+    <t>PH(2) 2</t>
+  </si>
+  <si>
+    <t>PH(2) 3</t>
+  </si>
+  <si>
+    <t>PH(2) 4</t>
+  </si>
+  <si>
+    <t>PH(2) 5</t>
+  </si>
+  <si>
+    <t>PH(2) 6</t>
+  </si>
+  <si>
+    <t>PH(2) 7</t>
+  </si>
+  <si>
+    <t>PH(2) 8</t>
+  </si>
+  <si>
+    <t>PH(2) 9</t>
+  </si>
+  <si>
+    <t>PH(2) 10</t>
+  </si>
+  <si>
+    <t>PH(0) 1</t>
+  </si>
+  <si>
+    <t>PH(0) 2</t>
+  </si>
+  <si>
+    <t>PH(0) 3</t>
+  </si>
+  <si>
+    <t>PH(0) 4</t>
+  </si>
+  <si>
+    <t>PH(0) 5</t>
+  </si>
+  <si>
+    <t>PH(0) 6</t>
+  </si>
+  <si>
+    <t>PH(0) 7</t>
+  </si>
+  <si>
+    <t>PH(0) 8</t>
+  </si>
+  <si>
+    <t>PH(0) 9</t>
+  </si>
+  <si>
+    <t>PH(0) 10</t>
   </si>
 </sst>
 </file>
@@ -1157,11 +1223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280104240"/>
-        <c:axId val="280123240"/>
+        <c:axId val="126784920"/>
+        <c:axId val="126785312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280104240"/>
+        <c:axId val="126784920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1275,13 +1341,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280123240"/>
+        <c:crossAx val="126785312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280123240"/>
+        <c:axId val="126785312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,7 +1464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280104240"/>
+        <c:crossAx val="126784920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5733,175 +5799,246 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
       <c r="T1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="e">
-        <f>AVERAGE(H2:Q2)</f>
+        <f>AVERAGE(I2:R2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C2" t="e">
-        <f>AVERAGE(S2:AB2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <f>AVERAGE(T2:AC2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>AVERAGE(AE2:AN2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
+        <f t="shared" ref="B3:B5" si="0">AVERAGE(I3:R3)</f>
         <v>14253.6</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="1">AVERAGE(S3:AB3)</f>
+        <f t="shared" ref="C3:C5" si="1">AVERAGE(T3:AC3)</f>
         <v>713.4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="2">AVERAGE(AE3:AN3)</f>
+        <v>1996.9</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>14418</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>14271</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>14266</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>14235</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>14279</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>14219</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14260</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>14205</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>14201</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>14182</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>749</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>718</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>702</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>719</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>718</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>702</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>718</v>
-      </c>
-      <c r="Z3">
-        <v>702</v>
       </c>
       <c r="AA3">
         <v>702</v>
       </c>
       <c r="AB3">
+        <v>702</v>
+      </c>
+      <c r="AC3">
         <v>704</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AE3">
+        <v>2022</v>
+      </c>
+      <c r="AF3">
+        <v>1993</v>
+      </c>
+      <c r="AG3">
+        <v>2016</v>
+      </c>
+      <c r="AH3">
+        <v>1998</v>
+      </c>
+      <c r="AI3">
+        <v>2015</v>
+      </c>
+      <c r="AJ3">
+        <v>1985</v>
+      </c>
+      <c r="AK3">
+        <v>1991</v>
+      </c>
+      <c r="AL3">
+        <v>2001</v>
+      </c>
+      <c r="AM3">
+        <v>1973</v>
+      </c>
+      <c r="AN3">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -5913,11 +6050,15 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -5929,80 +6070,88 @@
         <f t="shared" si="1"/>
         <v>112.7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="D5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>121</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>119</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>123</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>109</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>97</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>111</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>112</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>105</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>112</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="e">
-        <f>AVERAGE(H6:Q6)</f>
+        <f>AVERAGE(I6:R6)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C6">
-        <f>AVERAGE(S6:AB6)</f>
+        <f>AVERAGE(T6:AC6)</f>
         <v>206.9</v>
       </c>
-      <c r="S6">
+      <c r="D6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6">
         <v>214</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>213</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>210</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>211</v>
-      </c>
-      <c r="W6">
-        <v>199</v>
       </c>
       <c r="X6">
         <v>199</v>
       </c>
       <c r="Y6">
+        <v>199</v>
+      </c>
+      <c r="Z6">
         <v>207</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>200</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>208</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>208</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
   <si>
     <t># Cells</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>PH(0) 10</t>
+  </si>
+  <si>
+    <t>TSN</t>
   </si>
 </sst>
 </file>
@@ -281,12 +284,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5802,10 +5806,13 @@
   <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -5910,37 +5917,97 @@
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="e">
+        <v>74</v>
+      </c>
+      <c r="B2" s="3" t="e">
         <f>AVERAGE(I2:R2)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C2" t="e">
+      <c r="C2" s="3">
         <f>AVERAGE(T2:AC2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D2" t="e">
+        <v>118.8</v>
+      </c>
+      <c r="D2" s="3">
         <f>AVERAGE(AE2:AN2)</f>
-        <v>#DIV/0!</v>
+        <v>316.10000000000002</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="T2">
+        <v>126</v>
+      </c>
+      <c r="U2">
+        <v>124</v>
+      </c>
+      <c r="V2">
+        <v>128</v>
+      </c>
+      <c r="W2">
+        <v>115</v>
+      </c>
+      <c r="X2">
+        <v>115</v>
+      </c>
+      <c r="Y2">
+        <v>123</v>
+      </c>
+      <c r="Z2">
+        <v>115</v>
+      </c>
+      <c r="AA2">
+        <v>128</v>
+      </c>
+      <c r="AB2">
+        <v>102</v>
+      </c>
+      <c r="AC2">
+        <v>112</v>
+      </c>
+      <c r="AE2">
+        <v>313</v>
+      </c>
+      <c r="AF2">
+        <v>321</v>
+      </c>
+      <c r="AG2">
+        <v>333</v>
+      </c>
+      <c r="AH2">
+        <v>314</v>
+      </c>
+      <c r="AI2">
+        <v>319</v>
+      </c>
+      <c r="AJ2">
+        <v>311</v>
+      </c>
+      <c r="AK2">
+        <v>312</v>
+      </c>
+      <c r="AL2">
+        <v>310</v>
+      </c>
+      <c r="AM2">
+        <v>312</v>
+      </c>
+      <c r="AN2">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <f t="shared" ref="B3:B5" si="0">AVERAGE(I3:R3)</f>
         <v>14253.6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f t="shared" ref="C3:C5" si="1">AVERAGE(T3:AC3)</f>
         <v>713.4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D6" si="2">AVERAGE(AE3:AN3)</f>
         <v>1996.9</v>
       </c>
@@ -6042,15 +6109,15 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C4" t="e">
+      <c r="C4" s="3" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4" s="3" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
@@ -6062,17 +6129,17 @@
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" t="e">
+      <c r="B5" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f t="shared" si="1"/>
         <v>112.7</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>248.8</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
@@ -6106,23 +6173,53 @@
       </c>
       <c r="AC5">
         <v>118</v>
+      </c>
+      <c r="AE5">
+        <v>252</v>
+      </c>
+      <c r="AF5">
+        <v>252</v>
+      </c>
+      <c r="AG5">
+        <v>249</v>
+      </c>
+      <c r="AH5">
+        <v>252</v>
+      </c>
+      <c r="AI5">
+        <v>251</v>
+      </c>
+      <c r="AJ5">
+        <v>244</v>
+      </c>
+      <c r="AK5">
+        <v>252</v>
+      </c>
+      <c r="AL5">
+        <v>243</v>
+      </c>
+      <c r="AM5">
+        <v>251</v>
+      </c>
+      <c r="AN5">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="e">
+      <c r="B6" s="3" t="e">
         <f>AVERAGE(I6:R6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f>AVERAGE(T6:AC6)</f>
         <v>206.9</v>
       </c>
-      <c r="D6" t="e">
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>503.5</v>
       </c>
       <c r="T6">
         <v>214</v>
@@ -6154,9 +6251,40 @@
       <c r="AC6">
         <v>208</v>
       </c>
+      <c r="AE6">
+        <v>506</v>
+      </c>
+      <c r="AF6">
+        <v>516</v>
+      </c>
+      <c r="AG6">
+        <v>511</v>
+      </c>
+      <c r="AH6">
+        <v>501</v>
+      </c>
+      <c r="AI6">
+        <v>487</v>
+      </c>
+      <c r="AJ6">
+        <v>492</v>
+      </c>
+      <c r="AK6">
+        <v>502</v>
+      </c>
+      <c r="AL6">
+        <v>506</v>
+      </c>
+      <c r="AM6">
+        <v>515</v>
+      </c>
+      <c r="AN6">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/results.xlsx
+++ b/results.xlsx
@@ -1227,11 +1227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="126784920"/>
-        <c:axId val="126785312"/>
+        <c:axId val="177704064"/>
+        <c:axId val="179818760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126784920"/>
+        <c:axId val="177704064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1345,13 +1345,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126785312"/>
+        <c:crossAx val="179818760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126785312"/>
+        <c:axId val="179818760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="126784920"/>
+        <c:crossAx val="177704064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5806,7 +5806,7 @@
   <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6113,16 +6113,76 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="C4" s="3" t="e">
+      <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="3" t="e">
+        <v>147</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>334.9</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
+      </c>
+      <c r="T4">
+        <v>145</v>
+      </c>
+      <c r="U4">
+        <v>149</v>
+      </c>
+      <c r="V4">
+        <v>144</v>
+      </c>
+      <c r="W4">
+        <v>150</v>
+      </c>
+      <c r="X4">
+        <v>145</v>
+      </c>
+      <c r="Y4">
+        <v>146</v>
+      </c>
+      <c r="Z4">
+        <v>146</v>
+      </c>
+      <c r="AA4">
+        <v>152</v>
+      </c>
+      <c r="AB4">
+        <v>146</v>
+      </c>
+      <c r="AC4">
+        <v>147</v>
+      </c>
+      <c r="AE4">
+        <v>330</v>
+      </c>
+      <c r="AF4">
+        <v>332</v>
+      </c>
+      <c r="AG4">
+        <v>348</v>
+      </c>
+      <c r="AH4">
+        <v>339</v>
+      </c>
+      <c r="AI4">
+        <v>343</v>
+      </c>
+      <c r="AJ4">
+        <v>336</v>
+      </c>
+      <c r="AK4">
+        <v>329</v>
+      </c>
+      <c r="AL4">
+        <v>331</v>
+      </c>
+      <c r="AM4">
+        <v>330</v>
+      </c>
+      <c r="AN4">
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">

--- a/results.xlsx
+++ b/results.xlsx
@@ -1227,11 +1227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="177704064"/>
-        <c:axId val="179818760"/>
+        <c:axId val="244914960"/>
+        <c:axId val="244915352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177704064"/>
+        <c:axId val="244914960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1345,13 +1345,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179818760"/>
+        <c:crossAx val="244915352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179818760"/>
+        <c:axId val="244915352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177704064"/>
+        <c:crossAx val="244914960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5806,7 +5806,7 @@
   <dimension ref="A1:AN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5925,74 +5925,74 @@
       </c>
       <c r="C2" s="3">
         <f>AVERAGE(T2:AC2)</f>
-        <v>118.8</v>
+        <v>118.7</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE(AE2:AN2)</f>
-        <v>316.10000000000002</v>
+        <v>285.89999999999998</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U2">
+        <v>88</v>
+      </c>
+      <c r="V2">
+        <v>117</v>
+      </c>
+      <c r="W2">
+        <v>106</v>
+      </c>
+      <c r="X2">
         <v>124</v>
       </c>
-      <c r="V2">
-        <v>128</v>
-      </c>
-      <c r="W2">
-        <v>115</v>
-      </c>
-      <c r="X2">
-        <v>115</v>
-      </c>
       <c r="Y2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Z2">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AA2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="AB2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="AC2">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AE2">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="AF2">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="AG2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="AH2">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="AI2">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="AJ2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AK2">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="AL2">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="AM2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AN2">
-        <v>316</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
@@ -6000,109 +6000,109 @@
         <v>46</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B5" si="0">AVERAGE(I3:R3)</f>
-        <v>14253.6</v>
+        <f t="shared" ref="B3:B6" si="0">AVERAGE(I3:R3)</f>
+        <v>13709.3</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C5" si="1">AVERAGE(T3:AC3)</f>
-        <v>713.4</v>
+        <f t="shared" ref="C3:C4" si="1">AVERAGE(T3:AC3)</f>
+        <v>676.2</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D6" si="2">AVERAGE(AE3:AN3)</f>
-        <v>1996.9</v>
+        <f t="shared" ref="D3:D4" si="2">AVERAGE(AE3:AN3)</f>
+        <v>1644.9</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>14418</v>
+        <v>13873</v>
       </c>
       <c r="J3">
-        <v>14271</v>
+        <v>13626</v>
       </c>
       <c r="K3">
-        <v>14266</v>
+        <v>13756</v>
       </c>
       <c r="L3">
-        <v>14235</v>
+        <v>13757</v>
       </c>
       <c r="M3">
-        <v>14279</v>
+        <v>13636</v>
       </c>
       <c r="N3">
-        <v>14219</v>
+        <v>13795</v>
       </c>
       <c r="O3">
-        <v>14260</v>
+        <v>13593</v>
       </c>
       <c r="P3">
-        <v>14205</v>
+        <v>13639</v>
       </c>
       <c r="Q3">
-        <v>14201</v>
+        <v>13631</v>
       </c>
       <c r="R3">
-        <v>14182</v>
+        <v>13787</v>
       </c>
       <c r="T3">
-        <v>749</v>
+        <v>689</v>
       </c>
       <c r="U3">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="V3">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="W3">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="X3">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="Y3">
-        <v>702</v>
+        <v>668</v>
       </c>
       <c r="Z3">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="AA3">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="AB3">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="AC3">
-        <v>704</v>
+        <v>685</v>
       </c>
       <c r="AE3">
-        <v>2022</v>
+        <v>1630</v>
       </c>
       <c r="AF3">
-        <v>1993</v>
+        <v>1653</v>
       </c>
       <c r="AG3">
-        <v>2016</v>
+        <v>1650</v>
       </c>
       <c r="AH3">
-        <v>1998</v>
+        <v>1645</v>
       </c>
       <c r="AI3">
-        <v>2015</v>
+        <v>1663</v>
       </c>
       <c r="AJ3">
-        <v>1985</v>
+        <v>1641</v>
       </c>
       <c r="AK3">
-        <v>1991</v>
+        <v>1638</v>
       </c>
       <c r="AL3">
-        <v>2001</v>
+        <v>1643</v>
       </c>
       <c r="AM3">
-        <v>1973</v>
+        <v>1617</v>
       </c>
       <c r="AN3">
-        <v>1975</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -6115,74 +6115,74 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>134.5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="2"/>
-        <v>334.9</v>
+        <v>320.8</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="T4">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="U4">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="V4">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="W4">
+        <v>143</v>
+      </c>
+      <c r="X4">
+        <v>135</v>
+      </c>
+      <c r="Y4">
+        <v>138</v>
+      </c>
+      <c r="Z4">
+        <v>137</v>
+      </c>
+      <c r="AA4">
+        <v>121</v>
+      </c>
+      <c r="AB4">
+        <v>140</v>
+      </c>
+      <c r="AC4">
         <v>150</v>
       </c>
-      <c r="X4">
-        <v>145</v>
-      </c>
-      <c r="Y4">
-        <v>146</v>
-      </c>
-      <c r="Z4">
-        <v>146</v>
-      </c>
-      <c r="AA4">
-        <v>152</v>
-      </c>
-      <c r="AB4">
-        <v>146</v>
-      </c>
-      <c r="AC4">
-        <v>147</v>
-      </c>
       <c r="AE4">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AF4">
+        <v>333</v>
+      </c>
+      <c r="AG4">
+        <v>294</v>
+      </c>
+      <c r="AH4">
+        <v>318</v>
+      </c>
+      <c r="AI4">
+        <v>317</v>
+      </c>
+      <c r="AJ4">
+        <v>311</v>
+      </c>
+      <c r="AK4">
+        <v>326</v>
+      </c>
+      <c r="AL4">
+        <v>318</v>
+      </c>
+      <c r="AM4">
         <v>332</v>
       </c>
-      <c r="AG4">
-        <v>348</v>
-      </c>
-      <c r="AH4">
-        <v>339</v>
-      </c>
-      <c r="AI4">
-        <v>343</v>
-      </c>
-      <c r="AJ4">
+      <c r="AN4">
         <v>336</v>
-      </c>
-      <c r="AK4">
-        <v>329</v>
-      </c>
-      <c r="AL4">
-        <v>331</v>
-      </c>
-      <c r="AM4">
-        <v>330</v>
-      </c>
-      <c r="AN4">
-        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
@@ -6194,75 +6194,75 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="1"/>
-        <v>112.7</v>
+        <f>AVERAGE(T5:AC5)</f>
+        <v>100.7</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="2"/>
-        <v>248.8</v>
+        <f>AVERAGE(AE5:AN5)</f>
+        <v>255.7</v>
       </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="V5">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="W5">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X5">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="Y5">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="Z5">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="AA5">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AB5">
         <v>112</v>
       </c>
       <c r="AC5">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="AE5">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AF5">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AG5">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="AH5">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AI5">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="AJ5">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="AK5">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AL5">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AM5">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AN5">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -6270,76 +6270,76 @@
         <v>49</v>
       </c>
       <c r="B6" s="3" t="e">
-        <f>AVERAGE(I6:R6)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE(T6:AC6)</f>
-        <v>206.9</v>
+        <v>157</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="2"/>
-        <v>503.5</v>
+        <f>AVERAGE(AE6:AN6)</f>
+        <v>458.7</v>
       </c>
       <c r="T6">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="U6">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="V6">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="W6">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="X6">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="Y6">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="Z6">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="AA6">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="AB6">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="AC6">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="AE6">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="AF6">
-        <v>516</v>
+        <v>431</v>
       </c>
       <c r="AG6">
-        <v>511</v>
+        <v>456</v>
       </c>
       <c r="AH6">
-        <v>501</v>
+        <v>456</v>
       </c>
       <c r="AI6">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="AJ6">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="AK6">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="AL6">
-        <v>506</v>
+        <v>455</v>
       </c>
       <c r="AM6">
-        <v>515</v>
+        <v>468</v>
       </c>
       <c r="AN6">
-        <v>499</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
   <si>
     <t># Cells</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>TSN</t>
+  </si>
+  <si>
+    <t>Improvements</t>
   </si>
 </sst>
 </file>
@@ -1227,11 +1230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244914960"/>
-        <c:axId val="244915352"/>
+        <c:axId val="203008648"/>
+        <c:axId val="203009040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244914960"/>
+        <c:axId val="203008648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1345,13 +1348,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244915352"/>
+        <c:crossAx val="203009040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="244915352"/>
+        <c:axId val="203009040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244914960"/>
+        <c:crossAx val="203008648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5803,15 +5806,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN6"/>
+  <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -5919,9 +5922,9 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="3" t="e">
+      <c r="B2" s="3">
         <f>AVERAGE(I2:R2)</f>
-        <v>#DIV/0!</v>
+        <v>721.2</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE(T2:AC2)</f>
@@ -5934,6 +5937,36 @@
       <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="I2">
+        <v>717</v>
+      </c>
+      <c r="J2">
+        <v>697</v>
+      </c>
+      <c r="K2">
+        <v>717</v>
+      </c>
+      <c r="L2">
+        <v>747</v>
+      </c>
+      <c r="M2">
+        <v>715</v>
+      </c>
+      <c r="N2">
+        <v>717</v>
+      </c>
+      <c r="O2">
+        <v>723</v>
+      </c>
+      <c r="P2">
+        <v>724</v>
+      </c>
+      <c r="Q2">
+        <v>730</v>
+      </c>
+      <c r="R2">
+        <v>725</v>
+      </c>
       <c r="T2">
         <v>129</v>
       </c>
@@ -6000,7 +6033,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B6" si="0">AVERAGE(I3:R3)</f>
+        <f t="shared" ref="B3:B4" si="0">AVERAGE(I3:R3)</f>
         <v>13709.3</v>
       </c>
       <c r="C3" s="3">
@@ -6109,9 +6142,9 @@
       <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="e">
+      <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1353.2</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
@@ -6124,6 +6157,36 @@
       <c r="F4" t="s">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>1356</v>
+      </c>
+      <c r="J4">
+        <v>1357</v>
+      </c>
+      <c r="K4">
+        <v>1350</v>
+      </c>
+      <c r="L4">
+        <v>1351</v>
+      </c>
+      <c r="M4">
+        <v>1375</v>
+      </c>
+      <c r="N4">
+        <v>1356</v>
+      </c>
+      <c r="O4">
+        <v>1350</v>
+      </c>
+      <c r="P4">
+        <v>1344</v>
+      </c>
+      <c r="Q4">
+        <v>1351</v>
+      </c>
+      <c r="R4">
+        <v>1342</v>
+      </c>
       <c r="T4">
         <v>131</v>
       </c>
@@ -6189,9 +6252,9 @@
       <c r="A5" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B5" s="3">
+        <f>AVERAGE(I5:R5)</f>
+        <v>595.5</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE(T5:AC5)</f>
@@ -6204,6 +6267,36 @@
       <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="I5">
+        <v>595</v>
+      </c>
+      <c r="J5">
+        <v>608</v>
+      </c>
+      <c r="K5">
+        <v>596</v>
+      </c>
+      <c r="L5">
+        <v>576</v>
+      </c>
+      <c r="M5">
+        <v>612</v>
+      </c>
+      <c r="N5">
+        <v>593</v>
+      </c>
+      <c r="O5">
+        <v>593</v>
+      </c>
+      <c r="P5">
+        <v>590</v>
+      </c>
+      <c r="Q5">
+        <v>593</v>
+      </c>
+      <c r="R5">
+        <v>599</v>
+      </c>
       <c r="T5">
         <v>100</v>
       </c>
@@ -6269,9 +6362,9 @@
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B6" s="3">
+        <f>AVERAGE(I6:R6)</f>
+        <v>1082.5999999999999</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE(T6:AC6)</f>
@@ -6281,6 +6374,36 @@
         <f>AVERAGE(AE6:AN6)</f>
         <v>458.7</v>
       </c>
+      <c r="I6">
+        <v>1076</v>
+      </c>
+      <c r="J6">
+        <v>1080</v>
+      </c>
+      <c r="K6">
+        <v>1076</v>
+      </c>
+      <c r="L6">
+        <v>1088</v>
+      </c>
+      <c r="M6">
+        <v>1127</v>
+      </c>
+      <c r="N6">
+        <v>1084</v>
+      </c>
+      <c r="O6">
+        <v>1064</v>
+      </c>
+      <c r="P6">
+        <v>1079</v>
+      </c>
+      <c r="Q6">
+        <v>1075</v>
+      </c>
+      <c r="R6">
+        <v>1077</v>
+      </c>
       <c r="T6">
         <v>164</v>
       </c>
@@ -6340,6 +6463,59 @@
       </c>
       <c r="AN6">
         <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <f>B2/C2</f>
+        <v>6.0758213984835718</v>
+      </c>
+      <c r="D9">
+        <f>B2/D2</f>
+        <v>2.5225603357817423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B3/C3</f>
+        <v>20.274031351671102</v>
+      </c>
+      <c r="D10">
+        <f>B3/D3</f>
+        <v>8.3344276247796216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>B4/C4</f>
+        <v>10.060966542750929</v>
+      </c>
+      <c r="D11">
+        <f>B4/D4</f>
+        <v>4.2182044887780545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>B5/C5</f>
+        <v>5.9136047666335649</v>
+      </c>
+      <c r="D12">
+        <f>B5/D5</f>
+        <v>2.3289010559249119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>B6/C6</f>
+        <v>6.8955414012738849</v>
+      </c>
+      <c r="D13">
+        <f>B6/D6</f>
+        <v>2.3601482450403313</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
     <sheet name="Simulation Time" sheetId="2" r:id="rId2"/>
-    <sheet name="Memory Usage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t># Cells</t>
   </si>
@@ -151,9 +150,6 @@
   </si>
   <si>
     <t>PH 10</t>
-  </si>
-  <si>
-    <t>TTS</t>
   </si>
   <si>
     <t>NHC</t>
@@ -1230,11 +1226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="203008648"/>
-        <c:axId val="203009040"/>
+        <c:axId val="254767920"/>
+        <c:axId val="199621392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="203008648"/>
+        <c:axId val="254767920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1348,13 +1344,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203009040"/>
+        <c:crossAx val="199621392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203009040"/>
+        <c:axId val="199621392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203008648"/>
+        <c:crossAx val="254767920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2424,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" t="s">
         <v>25</v>
@@ -5617,7 +5613,7 @@
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>14</v>
@@ -5809,7 +5805,7 @@
   <dimension ref="A1:AN13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,10 +5818,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>53</v>
       </c>
       <c r="I1" t="s">
         <v>25</v>
@@ -5858,69 +5854,69 @@
         <v>34</v>
       </c>
       <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
         <v>54</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>59</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>60</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>61</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>62</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>72</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3">
         <f>AVERAGE(I2:R2)</f>
@@ -6030,7 +6026,7 @@
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B4" si="0">AVERAGE(I3:R3)</f>
@@ -6140,7 +6136,7 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
@@ -6250,7 +6246,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <f>AVERAGE(I5:R5)</f>
@@ -6360,7 +6356,7 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <f>AVERAGE(I6:R6)</f>
@@ -6467,7 +6463,7 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9">
         <f>B2/C2</f>
@@ -6522,164 +6518,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="e">
-        <f>AVERAGE(H2:Q2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>AVERAGE(S2:AB2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="e">
-        <f t="shared" ref="B3:B5" si="0">AVERAGE(H3:Q3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" t="e">
-        <f t="shared" ref="C3:C5" si="1">AVERAGE(S3:AB3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" t="e">
-        <f>AVERAGE(H6:Q6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" t="e">
-        <f>AVERAGE(S6:AB6)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
     <sheet name="Simulation Time" sheetId="2" r:id="rId2"/>
+    <sheet name="Executable Size" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t># Cells</t>
   </si>
@@ -1226,11 +1227,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="254767920"/>
-        <c:axId val="199621392"/>
+        <c:axId val="170963136"/>
+        <c:axId val="170963528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="254767920"/>
+        <c:axId val="170963136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1344,13 +1345,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199621392"/>
+        <c:crossAx val="170963528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="297"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199621392"/>
+        <c:axId val="170963528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254767920"/>
+        <c:crossAx val="170963136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5802,10 +5803,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,8 +6515,225 @@
         <v>2.3601482450403313</v>
       </c>
     </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>AVERAGE(C9:C13)</f>
+        <v>9.8439930921626111</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D9:D13)</f>
+        <v>3.9528483500609326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3">
+        <v>190</v>
+      </c>
+      <c r="C2" s="3">
+        <v>96</v>
+      </c>
+      <c r="D2" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3">
+        <v>320</v>
+      </c>
+      <c r="C3" s="3">
+        <v>128</v>
+      </c>
+      <c r="D3" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="3">
+        <v>226</v>
+      </c>
+      <c r="C4" s="3">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3">
+        <v>212</v>
+      </c>
+      <c r="C6" s="3">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9">
+        <f>B2/C2</f>
+        <v>1.9791666666666667</v>
+      </c>
+      <c r="D9">
+        <f>B2/D2</f>
+        <v>1.4503816793893129</v>
+      </c>
+      <c r="F9">
+        <f>100*($B2-C2)/B2</f>
+        <v>49.473684210526315</v>
+      </c>
+      <c r="G9">
+        <f>100*($B2-D2)/C2</f>
+        <v>61.458333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>B3/C3</f>
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <f>B3/D3</f>
+        <v>0.99071207430340558</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:G13" si="0">100*($B3-C3)/B3</f>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-2.34375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>B4/C4</f>
+        <v>2.306122448979592</v>
+      </c>
+      <c r="D11">
+        <f>B4/D4</f>
+        <v>1.3865030674846626</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>56.637168141592923</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>64.285714285714292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>B5/C5</f>
+        <v>1.9381443298969072</v>
+      </c>
+      <c r="D12">
+        <f>B5/D5</f>
+        <v>1.4461538461538461</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>48.404255319148938</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>59.793814432989691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>B6/C6</f>
+        <v>2.1632653061224492</v>
+      </c>
+      <c r="D13">
+        <f>B6/D6</f>
+        <v>1.2183908045977012</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>53.773584905660378</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>38.775510204081634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>AVERAGE(C9:C13)</f>
+        <v>2.1773397503331231</v>
+      </c>
+      <c r="D15">
+        <f>AVERAGE(D9:D13)</f>
+        <v>1.2984282943857857</v>
+      </c>
+      <c r="F15">
+        <f>AVERAGE(F9:F13)</f>
+        <v>53.657738515385709</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(G9:G13)</f>
+        <v>44.393924451223789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathan/git/DATE2016_codegen/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="8600" yWindow="3500" windowWidth="25000" windowHeight="14960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="1" r:id="rId1"/>
     <sheet name="Simulation Time" sheetId="2" r:id="rId2"/>
     <sheet name="Executable Size" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -284,13 +294,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,7 +322,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-NZ"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -428,184 +439,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>297</c:v>
+                  <c:v>297.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>363</c:v>
+                  <c:v>363.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>429</c:v>
+                  <c:v>429.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>462</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>495</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>528</c:v>
+                  <c:v>528.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>561</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>594</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>627</c:v>
+                  <c:v>627.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>660</c:v>
+                  <c:v>660.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>693</c:v>
+                  <c:v>693.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>726</c:v>
+                  <c:v>726.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>759</c:v>
+                  <c:v>759.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>792</c:v>
+                  <c:v>792.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>825</c:v>
+                  <c:v>825.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>858</c:v>
+                  <c:v>858.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>891</c:v>
+                  <c:v>891.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>924</c:v>
+                  <c:v>924.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>957</c:v>
+                  <c:v>957.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>990</c:v>
+                  <c:v>990.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1023</c:v>
+                  <c:v>1023.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1056</c:v>
+                  <c:v>1056.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1089</c:v>
+                  <c:v>1089.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1122</c:v>
+                  <c:v>1122.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1155</c:v>
+                  <c:v>1155.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1188</c:v>
+                  <c:v>1188.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1221</c:v>
+                  <c:v>1221.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1254</c:v>
+                  <c:v>1254.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1287</c:v>
+                  <c:v>1287.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1320</c:v>
+                  <c:v>1320.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1386</c:v>
+                  <c:v>1386.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1419</c:v>
+                  <c:v>1419.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1452</c:v>
+                  <c:v>1452.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1485</c:v>
+                  <c:v>1485.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1518</c:v>
+                  <c:v>1518.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1551</c:v>
+                  <c:v>1551.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1584</c:v>
+                  <c:v>1584.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1617</c:v>
+                  <c:v>1617.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1650</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1683</c:v>
+                  <c:v>1683.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1716</c:v>
+                  <c:v>1716.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1749</c:v>
+                  <c:v>1749.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1782</c:v>
+                  <c:v>1782.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1815</c:v>
+                  <c:v>1815.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1848</c:v>
+                  <c:v>1848.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1881</c:v>
+                  <c:v>1881.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -617,40 +628,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>0.73199999999999998</c:v>
+                  <c:v>0.732</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7189999999999994</c:v>
+                  <c:v>1.718999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8380000000000005</c:v>
+                  <c:v>2.838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6160000000000014</c:v>
+                  <c:v>4.616000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2849999999999993</c:v>
+                  <c:v>7.284999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.095000000000001</c:v>
+                  <c:v>11.095</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.411999999999999</c:v>
+                  <c:v>16.412</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.025000000000002</c:v>
+                  <c:v>23.025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.122999999999998</c:v>
+                  <c:v>31.123</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.424999999999997</c:v>
+                  <c:v>38.425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.940999999999995</c:v>
+                  <c:v>45.941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.601999999999997</c:v>
+                  <c:v>52.602</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>59.35799999999999</c:v>
@@ -659,106 +670,106 @@
                   <c:v>65.38000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>71.759999999999991</c:v>
+                  <c:v>71.76</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>77.626000000000005</c:v>
+                  <c:v>77.626</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>81.759</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84.864000000000019</c:v>
+                  <c:v>84.86400000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>91.266999999999996</c:v>
+                  <c:v>91.267</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.097999999999999</c:v>
+                  <c:v>96.098</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100.40200000000002</c:v>
+                  <c:v>100.402</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>104.66100000000002</c:v>
+                  <c:v>104.661</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>112.742</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>118.29400000000001</c:v>
+                  <c:v>118.294</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>121.571</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>127.53000000000002</c:v>
+                  <c:v>127.53</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>131.96099999999998</c:v>
+                  <c:v>131.961</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>139.089</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>146.16999999999999</c:v>
+                  <c:v>146.17</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>148.38600000000002</c:v>
+                  <c:v>148.386</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>165.96800000000002</c:v>
+                  <c:v>165.968</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>166.64600000000002</c:v>
+                  <c:v>166.646</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>170.52499999999998</c:v>
+                  <c:v>170.525</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>172.89400000000001</c:v>
+                  <c:v>172.894</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>184.298</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>182.97199999999998</c:v>
+                  <c:v>182.972</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>194.17299999999997</c:v>
+                  <c:v>194.173</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>206.45100000000002</c:v>
+                  <c:v>206.451</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>224.84299999999999</c:v>
+                  <c:v>224.843</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>219.429</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>232.77699999999996</c:v>
+                  <c:v>232.777</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>246.34100000000004</c:v>
+                  <c:v>246.341</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>256.27499999999998</c:v>
+                  <c:v>256.275</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>273.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>268.46000000000004</c:v>
+                  <c:v>268.46</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>296.25999999999993</c:v>
+                  <c:v>296.2599999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>304.48099999999999</c:v>
+                  <c:v>304.481</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>328.75600000000003</c:v>
+                  <c:v>328.756</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>341.89</c:v>
@@ -767,34 +778,34 @@
                   <c:v>383.59</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>390.31299999999999</c:v>
+                  <c:v>390.313</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>395.11700000000008</c:v>
+                  <c:v>395.1170000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>436.78800000000001</c:v>
+                  <c:v>436.788</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>487.471</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>476.83000000000004</c:v>
+                  <c:v>476.83</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>485.89299999999992</c:v>
+                  <c:v>485.8929999999999</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>537.22299999999996</c:v>
+                  <c:v>537.223</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>543.78600000000006</c:v>
+                  <c:v>543.786</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>564.42499999999995</c:v>
+                  <c:v>564.425</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>608.72700000000009</c:v>
+                  <c:v>608.7270000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,184 +857,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>198</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>297</c:v>
+                  <c:v>297.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>330</c:v>
+                  <c:v>330.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>363</c:v>
+                  <c:v>363.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396</c:v>
+                  <c:v>396.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>429</c:v>
+                  <c:v>429.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>462</c:v>
+                  <c:v>462.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>495</c:v>
+                  <c:v>495.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>528</c:v>
+                  <c:v>528.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>561</c:v>
+                  <c:v>561.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>594</c:v>
+                  <c:v>594.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>627</c:v>
+                  <c:v>627.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>660</c:v>
+                  <c:v>660.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>693</c:v>
+                  <c:v>693.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>726</c:v>
+                  <c:v>726.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>759</c:v>
+                  <c:v>759.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>792</c:v>
+                  <c:v>792.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>825</c:v>
+                  <c:v>825.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>858</c:v>
+                  <c:v>858.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>891</c:v>
+                  <c:v>891.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>924</c:v>
+                  <c:v>924.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>957</c:v>
+                  <c:v>957.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>990</c:v>
+                  <c:v>990.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1023</c:v>
+                  <c:v>1023.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1056</c:v>
+                  <c:v>1056.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1089</c:v>
+                  <c:v>1089.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1122</c:v>
+                  <c:v>1122.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1155</c:v>
+                  <c:v>1155.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1188</c:v>
+                  <c:v>1188.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1221</c:v>
+                  <c:v>1221.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1254</c:v>
+                  <c:v>1254.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1287</c:v>
+                  <c:v>1287.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1320</c:v>
+                  <c:v>1320.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1353</c:v>
+                  <c:v>1353.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1386</c:v>
+                  <c:v>1386.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1419</c:v>
+                  <c:v>1419.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1452</c:v>
+                  <c:v>1452.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1485</c:v>
+                  <c:v>1485.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1518</c:v>
+                  <c:v>1518.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1551</c:v>
+                  <c:v>1551.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1584</c:v>
+                  <c:v>1584.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1617</c:v>
+                  <c:v>1617.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1650</c:v>
+                  <c:v>1650.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1683</c:v>
+                  <c:v>1683.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1716</c:v>
+                  <c:v>1716.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1749</c:v>
+                  <c:v>1749.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1782</c:v>
+                  <c:v>1782.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1815</c:v>
+                  <c:v>1815.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1848</c:v>
+                  <c:v>1848.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1881</c:v>
+                  <c:v>1881.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1914</c:v>
+                  <c:v>1914.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1947</c:v>
+                  <c:v>1947.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1980</c:v>
+                  <c:v>1980.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,181 +1049,181 @@
                   <c:v>8.043000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.091000000000001</c:v>
+                  <c:v>20.091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.335999999999999</c:v>
+                  <c:v>35.336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.319000000000003</c:v>
+                  <c:v>50.319</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>65.372</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83.053000000000011</c:v>
+                  <c:v>83.05300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.698000000000008</c:v>
+                  <c:v>98.69800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.28900000000002</c:v>
+                  <c:v>112.289</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>126.44799999999998</c:v>
+                  <c:v>126.448</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,15 +1238,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170963136"/>
-        <c:axId val="170963528"/>
+        <c:axId val="2142003408"/>
+        <c:axId val="2142011472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170963136"/>
+        <c:axId val="2142003408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
-          <c:min val="33"/>
+          <c:max val="2000.0"/>
+          <c:min val="33.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1345,13 +1356,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170963528"/>
+        <c:crossAx val="2142011472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="297"/>
+        <c:majorUnit val="297.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170963528"/>
+        <c:axId val="2142011472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170963136"/>
+        <c:crossAx val="2142003408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2397,11 +2408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
@@ -2410,7 +2421,7 @@
     <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>33</v>
       </c>
@@ -2561,7 +2572,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>66</v>
       </c>
@@ -2638,7 +2649,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>99</v>
       </c>
@@ -2715,7 +2726,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>132</v>
       </c>
@@ -2792,7 +2803,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>165</v>
       </c>
@@ -2869,7 +2880,7 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>198</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>11.080000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>231</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>16.54</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>264</v>
       </c>
@@ -3100,7 +3111,7 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>297</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>330</v>
       </c>
@@ -3224,7 +3235,7 @@
         <v>38.380000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>363</v>
       </c>
@@ -3271,7 +3282,7 @@
         <v>46.02</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>396</v>
       </c>
@@ -3318,7 +3329,7 @@
         <v>53.35</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>429</v>
       </c>
@@ -3365,7 +3376,7 @@
         <v>59.75</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>462</v>
       </c>
@@ -3412,7 +3423,7 @@
         <v>65.209999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>495</v>
       </c>
@@ -3459,7 +3470,7 @@
         <v>71.289999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>528</v>
       </c>
@@ -3506,7 +3517,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>561</v>
       </c>
@@ -3553,7 +3564,7 @@
         <v>81.59</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>594</v>
       </c>
@@ -3600,7 +3611,7 @@
         <v>84.860000000000014</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>627</v>
       </c>
@@ -3647,7 +3658,7 @@
         <v>92.05</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>660</v>
       </c>
@@ -3694,7 +3705,7 @@
         <v>94.85</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>693</v>
       </c>
@@ -3741,7 +3752,7 @@
         <v>103.27</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>726</v>
       </c>
@@ -3788,7 +3799,7 @@
         <v>104.68</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>759</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>115.60000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>792</v>
       </c>
@@ -3882,7 +3893,7 @@
         <v>121.52</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>825</v>
       </c>
@@ -3929,7 +3940,7 @@
         <v>120.9</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>858</v>
       </c>
@@ -3976,7 +3987,7 @@
         <v>126.67</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>891</v>
       </c>
@@ -4023,7 +4034,7 @@
         <v>131.98000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>924</v>
       </c>
@@ -4070,7 +4081,7 @@
         <v>137.28</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>957</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>146.47999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>990</v>
       </c>
@@ -4164,7 +4175,7 @@
         <v>147.88999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1023</v>
       </c>
@@ -4211,7 +4222,7 @@
         <v>165.2</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1056</v>
       </c>
@@ -4258,7 +4269,7 @@
         <v>168.64000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1089</v>
       </c>
@@ -4305,7 +4316,7 @@
         <v>170.82</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1122</v>
       </c>
@@ -4352,7 +4363,7 @@
         <v>174.41</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1155</v>
       </c>
@@ -4399,7 +4410,7 @@
         <v>184.86</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1188</v>
       </c>
@@ -4446,7 +4457,7 @@
         <v>183.29999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1221</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>195.78</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1254</v>
       </c>
@@ -4540,7 +4551,7 @@
         <v>203.27</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1287</v>
       </c>
@@ -4587,7 +4598,7 @@
         <v>224.17000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1320</v>
       </c>
@@ -4634,7 +4645,7 @@
         <v>223.70000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1353</v>
       </c>
@@ -4681,7 +4692,7 @@
         <v>229.95000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1386</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>249.13</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1419</v>
       </c>
@@ -4775,7 +4786,7 @@
         <v>256.46000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1452</v>
       </c>
@@ -4822,7 +4833,7 @@
         <v>276.74</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1485</v>
       </c>
@@ -4869,7 +4880,7 @@
         <v>274.87</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1518</v>
       </c>
@@ -4916,7 +4927,7 @@
         <v>293.75</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1551</v>
       </c>
@@ -4963,7 +4974,7 @@
         <v>299.84000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1584</v>
       </c>
@@ -5010,7 +5021,7 @@
         <v>329.47</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1617</v>
       </c>
@@ -5057,7 +5068,7 @@
         <v>339.77</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1650</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>370.66</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1683</v>
       </c>
@@ -5151,7 +5162,7 @@
         <v>392.18000000000006</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1716</v>
       </c>
@@ -5198,7 +5209,7 @@
         <v>394.21</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1749</v>
       </c>
@@ -5245,7 +5256,7 @@
         <v>435.88</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1782</v>
       </c>
@@ -5292,7 +5303,7 @@
         <v>494.68000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1815</v>
       </c>
@@ -5339,7 +5350,7 @@
         <v>490.93000000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1848</v>
       </c>
@@ -5386,7 +5397,7 @@
         <v>490.46</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1881</v>
       </c>
@@ -5433,7 +5444,7 @@
         <v>549.77</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1914</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>545.69000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1947</v>
       </c>
@@ -5527,7 +5538,7 @@
         <v>558.64</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1980</v>
       </c>
@@ -5574,12 +5585,12 @@
         <v>607.15000000000009</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -5590,7 +5601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -5612,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>50</v>
       </c>
@@ -5629,7 +5640,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5688,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
         <v>7</v>
       </c>
@@ -5713,7 +5724,7 @@
         <v>1017632</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
@@ -5739,7 +5750,7 @@
         <v>127238</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="R74" s="1" t="s">
         <v>16</v>
       </c>
@@ -5748,7 +5759,7 @@
         <v>1145142</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>16</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>8388608</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>19</v>
       </c>
@@ -5805,16 +5816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -5915,7 +5926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6025,7 +6036,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6135,7 +6146,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -6245,7 +6256,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6355,7 +6366,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -6462,7 +6473,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -6475,7 +6486,7 @@
         <v>2.5225603357817423</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>B3/C3</f>
         <v>20.274031351671102</v>
@@ -6485,7 +6496,7 @@
         <v>8.3344276247796216</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>B4/C4</f>
         <v>10.060966542750929</v>
@@ -6494,8 +6505,20 @@
         <f>B4/D4</f>
         <v>4.2182044887780545</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G11" s="4">
+        <f>B2/$B2</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" ref="H11:I11" si="3">C2/$B2</f>
+        <v>0.16458679977814752</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="3"/>
+        <v>0.39642262895174701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C12">
         <f>B5/C5</f>
         <v>5.9136047666335649</v>
@@ -6504,8 +6527,20 @@
         <f>B5/D5</f>
         <v>2.3289010559249119</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G15" si="4">B3/$B3</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" ref="H12:H15" si="5">C3/$B3</f>
+        <v>4.9324181395111355E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:I15" si="6">D3/$B3</f>
+        <v>0.11998424427213644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>B6/C6</f>
         <v>6.8955414012738849</v>
@@ -6514,8 +6549,34 @@
         <f>B6/D6</f>
         <v>2.3601482450403313</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="5"/>
+        <v>9.9394028968371267E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="6"/>
+        <v>0.2370676913981673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.16910159529806884</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="6"/>
+        <v>0.42938706968933665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C15">
         <f>AVERAGE(C9:C13)</f>
         <v>9.8439930921626111</v>
@@ -6523,6 +6584,18 @@
       <c r="D15">
         <f>AVERAGE(D9:D13)</f>
         <v>3.9528483500609326</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.14502124515056347</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="6"/>
+        <v>0.42370219841123224</v>
       </c>
     </row>
   </sheetData>
@@ -6535,13 +6608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -6552,7 +6625,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -6566,7 +6639,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -6580,7 +6653,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -6594,7 +6667,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -6608,7 +6681,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -6622,7 +6695,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -6643,7 +6716,7 @@
         <v>61.458333333333336</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>B3/C3</f>
         <v>2.5</v>
@@ -6661,7 +6734,7 @@
         <v>-2.34375</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11">
         <f>B4/C4</f>
         <v>2.306122448979592</v>
@@ -6679,7 +6752,7 @@
         <v>64.285714285714292</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12">
         <f>B5/C5</f>
         <v>1.9381443298969072</v>
@@ -6697,7 +6770,7 @@
         <v>59.793814432989691</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13">
         <f>B6/C6</f>
         <v>2.1632653061224492</v>
@@ -6715,7 +6788,7 @@
         <v>38.775510204081634</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15">
         <f>AVERAGE(C9:C13)</f>
         <v>2.1773397503331231</v>
